--- a/015 VBA Programming/08-01-pivot-tables-explained.xlsx
+++ b/015 VBA Programming/08-01-pivot-tables-explained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web learning\015 VBA Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C094C036-6660-41B5-BEFE-B660649FB40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EDD640-74DE-4AA6-B4EB-7E237F5755BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCA7320E-6CEF-47D9-9EBD-252F01CC21B9}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="569">
   <si>
     <t>Date</t>
   </si>
@@ -1759,6 +1759,15 @@
   </si>
   <si>
     <t>Group3 Total</t>
+  </si>
+  <si>
+    <t>Total Sum of Sales</t>
+  </si>
+  <si>
+    <t>Total Sum of Units Sold</t>
+  </si>
+  <si>
+    <t>Sum of Units Sold</t>
   </si>
 </sst>
 </file>
@@ -1929,44 +1938,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2006,7 +1978,643 @@
       <fieldGroup par="15"/>
     </cacheField>
     <cacheField name="Units Sold" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="213" maxValue="4492"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="213" maxValue="4492" count="635">
+        <n v="1372"/>
+        <n v="2762"/>
+        <n v="1464"/>
+        <n v="719"/>
+        <n v="3576"/>
+        <n v="4422"/>
+        <n v="3649"/>
+        <n v="4172"/>
+        <n v="3841"/>
+        <n v="3726"/>
+        <n v="2625"/>
+        <n v="1958"/>
+        <n v="3271"/>
+        <n v="2091"/>
+        <n v="2530"/>
+        <n v="2825"/>
+        <n v="2513"/>
+        <n v="883"/>
+        <n v="2087"/>
+        <n v="2563"/>
+        <n v="2846"/>
+        <n v="997"/>
+        <n v="3421"/>
+        <n v="2291"/>
+        <n v="2290"/>
+        <n v="2133"/>
+        <n v="3475"/>
+        <n v="3686"/>
+        <n v="3319"/>
+        <n v="3617"/>
+        <n v="1266"/>
+        <n v="894"/>
+        <n v="2725"/>
+        <n v="3061"/>
+        <n v="3958"/>
+        <n v="3920"/>
+        <n v="3381"/>
+        <n v="1094"/>
+        <n v="4307"/>
+        <n v="878"/>
+        <n v="496"/>
+        <n v="3367"/>
+        <n v="3880"/>
+        <n v="2055"/>
+        <n v="4041"/>
+        <n v="3237"/>
+        <n v="630"/>
+        <n v="4210"/>
+        <n v="1127"/>
+        <n v="3438"/>
+        <n v="2015"/>
+        <n v="2534"/>
+        <n v="1384"/>
+        <n v="3561"/>
+        <n v="1823"/>
+        <n v="2795"/>
+        <n v="457"/>
+        <n v="3785"/>
+        <n v="748"/>
+        <n v="1021"/>
+        <n v="2076"/>
+        <n v="4316"/>
+        <n v="2654"/>
+        <n v="4174"/>
+        <n v="1675"/>
+        <n v="1572"/>
+        <n v="3736"/>
+        <n v="1914"/>
+        <n v="2742"/>
+        <n v="1499"/>
+        <n v="3772"/>
+        <n v="1112"/>
+        <n v="1723"/>
+        <n v="423"/>
+        <n v="2368"/>
+        <n v="1586"/>
+        <n v="3386"/>
+        <n v="852"/>
+        <n v="2783"/>
+        <n v="2684"/>
+        <n v="4393"/>
+        <n v="4083"/>
+        <n v="2816"/>
+        <n v="4294"/>
+        <n v="2856"/>
+        <n v="1407"/>
+        <n v="3850"/>
+        <n v="1265"/>
+        <n v="3892"/>
+        <n v="3068"/>
+        <n v="2181"/>
+        <n v="1356"/>
+        <n v="2545"/>
+        <n v="1814"/>
+        <n v="1495"/>
+        <n v="1154"/>
+        <n v="4180"/>
+        <n v="1463"/>
+        <n v="215"/>
+        <n v="4099"/>
+        <n v="2660"/>
+        <n v="566"/>
+        <n v="3255"/>
+        <n v="772"/>
+        <n v="1135"/>
+        <n v="3826"/>
+        <n v="1193"/>
+        <n v="3451"/>
+        <n v="3059"/>
+        <n v="3957"/>
+        <n v="3444"/>
+        <n v="4388"/>
+        <n v="2106"/>
+        <n v="799"/>
+        <n v="3154"/>
+        <n v="4108"/>
+        <n v="3760"/>
+        <n v="377"/>
+        <n v="2110"/>
+        <n v="2334"/>
+        <n v="580"/>
+        <n v="2610"/>
+        <n v="1598"/>
+        <n v="1459"/>
+        <n v="3284"/>
+        <n v="1197"/>
+        <n v="3774"/>
+        <n v="2303"/>
+        <n v="2572"/>
+        <n v="320"/>
+        <n v="2126"/>
+        <n v="3275"/>
+        <n v="3582"/>
+        <n v="783"/>
+        <n v="1202"/>
+        <n v="4056"/>
+        <n v="2144"/>
+        <n v="3502"/>
+        <n v="1397"/>
+        <n v="679"/>
+        <n v="2351"/>
+        <n v="2043"/>
+        <n v="3565"/>
+        <n v="1401"/>
+        <n v="2077"/>
+        <n v="3643"/>
+        <n v="1105"/>
+        <n v="2960"/>
+        <n v="1201"/>
+        <n v="2321"/>
+        <n v="3640"/>
+        <n v="3972"/>
+        <n v="3878"/>
+        <n v="2278"/>
+        <n v="1075"/>
+        <n v="4050"/>
+        <n v="3035"/>
+        <n v="3636"/>
+        <n v="1379"/>
+        <n v="4492"/>
+        <n v="764"/>
+        <n v="1744"/>
+        <n v="2341"/>
+        <n v="3835"/>
+        <n v="1161"/>
+        <n v="876"/>
+        <n v="1705"/>
+        <n v="1805"/>
+        <n v="389"/>
+        <n v="2745"/>
+        <n v="3938"/>
+        <n v="4236"/>
+        <n v="3627"/>
+        <n v="1756"/>
+        <n v="307"/>
+        <n v="4489"/>
+        <n v="2167"/>
+        <n v="1137"/>
+        <n v="1222"/>
+        <n v="489"/>
+        <n v="4133"/>
+        <n v="2743"/>
+        <n v="3699"/>
+        <n v="4460"/>
+        <n v="1232"/>
+        <n v="2586"/>
+        <n v="1332"/>
+        <n v="4487"/>
+        <n v="3862"/>
+        <n v="1765"/>
+        <n v="3533"/>
+        <n v="2016"/>
+        <n v="2938"/>
+        <n v="3352"/>
+        <n v="4409"/>
+        <n v="3323"/>
+        <n v="2430"/>
+        <n v="535"/>
+        <n v="1523"/>
+        <n v="3631"/>
+        <n v="1782"/>
+        <n v="347"/>
+        <n v="4147"/>
+        <n v="3509"/>
+        <n v="2774"/>
+        <n v="2943"/>
+        <n v="4037"/>
+        <n v="4146"/>
+        <n v="4123"/>
+        <n v="1337"/>
+        <n v="599"/>
+        <n v="725"/>
+        <n v="477"/>
+        <n v="2325"/>
+        <n v="675"/>
+        <n v="2990"/>
+        <n v="1072"/>
+        <n v="1048"/>
+        <n v="469"/>
+        <n v="804"/>
+        <n v="4240"/>
+        <n v="1976"/>
+        <n v="1984"/>
+        <n v="480"/>
+        <n v="3551"/>
+        <n v="1205"/>
+        <n v="2480"/>
+        <n v="2926"/>
+        <n v="3210"/>
+        <n v="3221"/>
+        <n v="2389"/>
+        <n v="319"/>
+        <n v="1610"/>
+        <n v="4100"/>
+        <n v="1012"/>
+        <n v="3337"/>
+        <n v="3955"/>
+        <n v="4347"/>
+        <n v="1548"/>
+        <n v="2153"/>
+        <n v="3789"/>
+        <n v="4364"/>
+        <n v="4126"/>
+        <n v="1343"/>
+        <n v="245"/>
+        <n v="3376"/>
+        <n v="3483"/>
+        <n v="2244"/>
+        <n v="1360"/>
+        <n v="279"/>
+        <n v="2521"/>
+        <n v="2433"/>
+        <n v="1738"/>
+        <n v="1106"/>
+        <n v="3379"/>
+        <n v="1221"/>
+        <n v="213"/>
+        <n v="3335"/>
+        <n v="1260"/>
+        <n v="3034"/>
+        <n v="2929"/>
+        <n v="3086"/>
+        <n v="745"/>
+        <n v="3790"/>
+        <n v="4287"/>
+        <n v="3193"/>
+        <n v="1967"/>
+        <n v="631"/>
+        <n v="3469"/>
+        <n v="570"/>
+        <n v="3215"/>
+        <n v="3754"/>
+        <n v="2187"/>
+        <n v="1959"/>
+        <n v="3559"/>
+        <n v="2205"/>
+        <n v="1890"/>
+        <n v="1296"/>
+        <n v="775"/>
+        <n v="2417"/>
+        <n v="1158"/>
+        <n v="803"/>
+        <n v="3705"/>
+        <n v="589"/>
+        <n v="3797"/>
+        <n v="1321"/>
+        <n v="3999"/>
+        <n v="4256"/>
+        <n v="1643"/>
+        <n v="1912"/>
+        <n v="2160"/>
+        <n v="466"/>
+        <n v="328"/>
+        <n v="990"/>
+        <n v="1433"/>
+        <n v="1478"/>
+        <n v="3798"/>
+        <n v="447"/>
+        <n v="1711"/>
+        <n v="1732"/>
+        <n v="1759"/>
+        <n v="338"/>
+        <n v="3911"/>
+        <n v="3691"/>
+        <n v="4473"/>
+        <n v="383"/>
+        <n v="3105"/>
+        <n v="1062"/>
+        <n v="3974"/>
+        <n v="3723"/>
+        <n v="2435"/>
+        <n v="1678"/>
+        <n v="1763"/>
+        <n v="1246"/>
+        <n v="1615"/>
+        <n v="749"/>
+        <n v="1318"/>
+        <n v="2882"/>
+        <n v="3039"/>
+        <n v="2484"/>
+        <n v="3169"/>
+        <n v="4080"/>
+        <n v="3943"/>
+        <n v="784"/>
+        <n v="253"/>
+        <n v="1316"/>
+        <n v="808"/>
+        <n v="3295"/>
+        <n v="520"/>
+        <n v="3942"/>
+        <n v="2498"/>
+        <n v="2517"/>
+        <n v="3182"/>
+        <n v="1145"/>
+        <n v="895"/>
+        <n v="3814"/>
+        <n v="1188"/>
+        <n v="2233"/>
+        <n v="421"/>
+        <n v="269"/>
+        <n v="3766"/>
+        <n v="952"/>
+        <n v="2964"/>
+        <n v="1505"/>
+        <n v="4249"/>
+        <n v="1677"/>
+        <n v="3051"/>
+        <n v="3372"/>
+        <n v="1686"/>
+        <n v="4150"/>
+        <n v="3027"/>
+        <n v="4359"/>
+        <n v="3628"/>
+        <n v="1589"/>
+        <n v="2679"/>
+        <n v="3401"/>
+        <n v="2815"/>
+        <n v="4173"/>
+        <n v="1157"/>
+        <n v="3065"/>
+        <n v="1962"/>
+        <n v="1713"/>
+        <n v="4082"/>
+        <n v="1691"/>
+        <n v="2305"/>
+        <n v="2288"/>
+        <n v="2399"/>
+        <n v="4086"/>
+        <n v="2651"/>
+        <n v="3971"/>
+        <n v="2512"/>
+        <n v="1903"/>
+        <n v="647"/>
+        <n v="2914"/>
+        <n v="1889"/>
+        <n v="1466"/>
+        <n v="887"/>
+        <n v="395"/>
+        <n v="1693"/>
+        <n v="2459"/>
+        <n v="2649"/>
+        <n v="3608"/>
+        <n v="1073"/>
+        <n v="1754"/>
+        <n v="1319"/>
+        <n v="1679"/>
+        <n v="1252"/>
+        <n v="3493"/>
+        <n v="1697"/>
+        <n v="1156"/>
+        <n v="726"/>
+        <n v="1153"/>
+        <n v="2720"/>
+        <n v="3658"/>
+        <n v="2950"/>
+        <n v="1821"/>
+        <n v="2209"/>
+        <n v="862"/>
+        <n v="3805"/>
+        <n v="1415"/>
+        <n v="2231"/>
+        <n v="2948"/>
+        <n v="3395"/>
+        <n v="2650"/>
+        <n v="585"/>
+        <n v="4459"/>
+        <n v="2711"/>
+        <n v="2621"/>
+        <n v="3613"/>
+        <n v="1847"/>
+        <n v="2996"/>
+        <n v="2838"/>
+        <n v="1302"/>
+        <n v="1536"/>
+        <n v="1291"/>
+        <n v="1213"/>
+        <n v="2370"/>
+        <n v="1979"/>
+        <n v="2879"/>
+        <n v="1707"/>
+        <n v="2933"/>
+        <n v="1014"/>
+        <n v="693"/>
+        <n v="3741"/>
+        <n v="3116"/>
+        <n v="3995"/>
+        <n v="953"/>
+        <n v="2565"/>
+        <n v="4297"/>
+        <n v="2871"/>
+        <n v="3537"/>
+        <n v="2616"/>
+        <n v="2836"/>
+        <n v="4023"/>
+        <n v="3994"/>
+        <n v="2928"/>
+        <n v="2912"/>
+        <n v="3671"/>
+        <n v="2778"/>
+        <n v="405"/>
+        <n v="2013"/>
+        <n v="2634"/>
+        <n v="4166"/>
+        <n v="355"/>
+        <n v="2382"/>
+        <n v="4170"/>
+        <n v="892"/>
+        <n v="2200"/>
+        <n v="3389"/>
+        <n v="4013"/>
+        <n v="739"/>
+        <n v="1989"/>
+        <n v="2991"/>
+        <n v="4237"/>
+        <n v="1442"/>
+        <n v="2712"/>
+        <n v="1508"/>
+        <n v="4245"/>
+        <n v="2630"/>
+        <n v="1182"/>
+        <n v="963"/>
+        <n v="3243"/>
+        <n v="1120"/>
+        <n v="1174"/>
+        <n v="2541"/>
+        <n v="3246"/>
+        <n v="1531"/>
+        <n v="2526"/>
+        <n v="1136"/>
+        <n v="1983"/>
+        <n v="3259"/>
+        <n v="3267"/>
+        <n v="2454"/>
+        <n v="2643"/>
+        <n v="2801"/>
+        <n v="1667"/>
+        <n v="3539"/>
+        <n v="4226"/>
+        <n v="2220"/>
+        <n v="776"/>
+        <n v="553"/>
+        <n v="2107"/>
+        <n v="2468"/>
+        <n v="1905"/>
+        <n v="4301"/>
+        <n v="2446"/>
+        <n v="4209"/>
+        <n v="3353"/>
+        <n v="1865"/>
+        <n v="463"/>
+        <n v="4177"/>
+        <n v="2523"/>
+        <n v="1930"/>
+        <n v="1301"/>
+        <n v="4125"/>
+        <n v="607"/>
+        <n v="478"/>
+        <n v="1504"/>
+        <n v="3763"/>
+        <n v="2412"/>
+        <n v="2342"/>
+        <n v="4451"/>
+        <n v="3796"/>
+        <n v="2286"/>
+        <n v="3614"/>
+        <n v="1716"/>
+        <n v="4175"/>
+        <n v="975"/>
+        <n v="1873"/>
+        <n v="3558"/>
+        <n v="3156"/>
+        <n v="2994"/>
+        <n v="1056"/>
+        <n v="1353"/>
+        <n v="416"/>
+        <n v="809"/>
+        <n v="1892"/>
+        <n v="2072"/>
+        <n v="3052"/>
+        <n v="3121"/>
+        <n v="2059"/>
+        <n v="4254"/>
+        <n v="1293"/>
+        <n v="230"/>
+        <n v="240"/>
+        <n v="2571"/>
+        <n v="1661"/>
+        <n v="4474"/>
+        <n v="833"/>
+        <n v="674"/>
+        <n v="778"/>
+        <n v="1457"/>
+        <n v="3158"/>
+        <n v="4095"/>
+        <n v="3170"/>
+        <n v="493"/>
+        <n v="3286"/>
+        <n v="3563"/>
+        <n v="4109"/>
+        <n v="3653"/>
+        <n v="2203"/>
+        <n v="2924"/>
+        <n v="1194"/>
+        <n v="3366"/>
+        <n v="1325"/>
+        <n v="4243"/>
+        <n v="2887"/>
+        <n v="3839"/>
+        <n v="1863"/>
+        <n v="2858"/>
+        <n v="2868"/>
+        <n v="3914"/>
+        <n v="524"/>
+        <n v="3095"/>
+        <n v="2410"/>
+        <n v="4263"/>
+        <n v="2239"/>
+        <n v="569"/>
+        <n v="3889"/>
+        <n v="1378"/>
+        <n v="2253"/>
+        <n v="3202"/>
+        <n v="2487"/>
+        <n v="4428"/>
+        <n v="1200"/>
+        <n v="2953"/>
+        <n v="1453"/>
+        <n v="865"/>
+        <n v="1737"/>
+        <n v="1535"/>
+        <n v="2532"/>
+        <n v="1567"/>
+        <n v="2640"/>
+        <n v="3079"/>
+        <n v="4130"/>
+        <n v="3080"/>
+        <n v="1530"/>
+        <n v="2021"/>
+        <n v="1804"/>
+        <n v="2913"/>
+        <n v="763"/>
+        <n v="1425"/>
+        <n v="4357"/>
+        <n v="2138"/>
+        <n v="3825"/>
+        <n v="3393"/>
+        <n v="2215"/>
+        <n v="403"/>
+        <n v="289"/>
+        <n v="372"/>
+        <n v="3781"/>
+        <n v="1785"/>
+        <n v="4029"/>
+        <n v="2813"/>
+        <n v="2150"/>
+        <n v="2093"/>
+        <n v="4391"/>
+        <n v="2695"/>
+        <n v="3735"/>
+        <n v="4320"/>
+        <n v="2828"/>
+        <n v="1248"/>
+        <n v="4035"/>
+        <n v="359"/>
+        <n v="3926"/>
+        <n v="4247"/>
+        <n v="1104"/>
+        <n v="1449"/>
+        <n v="1131"/>
+        <n v="1468"/>
+        <n v="1272"/>
+        <n v="1403"/>
+        <n v="2161"/>
+        <n v="1937"/>
+        <n v="1330"/>
+        <n v="2426"/>
+        <n v="2033"/>
+        <n v="2029"/>
+        <n v="1049"/>
+        <n v="2509"/>
+        <n v="1743"/>
+        <n v="3418"/>
+        <n v="1751"/>
+        <n v="3228"/>
+        <n v="1173"/>
+        <n v="3160"/>
+        <n v="4322"/>
+        <n v="1901"/>
+        <n v="2980"/>
+        <n v="4068"/>
+        <n v="2105"/>
+        <n v="1647"/>
+        <n v="235"/>
+        <n v="1897"/>
+        <n v="3621"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Manufacturing Price" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="260"/>
@@ -2846,7 +3454,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1372"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="20"/>
     <n v="27440"/>
@@ -2861,7 +3469,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="2762"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="20"/>
     <n v="55240"/>
@@ -2876,7 +3484,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="1464"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="15"/>
     <n v="21960"/>
@@ -2891,7 +3499,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="719"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="15"/>
     <n v="10785"/>
@@ -2906,7 +3514,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="3576"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="15"/>
     <n v="53640"/>
@@ -2921,7 +3529,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="4422"/>
+    <x v="5"/>
     <n v="3"/>
     <n v="350"/>
     <n v="1547700"/>
@@ -2936,7 +3544,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="3649"/>
+    <x v="6"/>
     <n v="5"/>
     <n v="15"/>
     <n v="54735"/>
@@ -2951,7 +3559,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="4172"/>
+    <x v="7"/>
     <n v="5"/>
     <n v="12"/>
     <n v="50064"/>
@@ -2966,7 +3574,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="3841"/>
+    <x v="8"/>
     <n v="5"/>
     <n v="20"/>
     <n v="76820"/>
@@ -2981,7 +3589,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="3726"/>
+    <x v="9"/>
     <n v="5"/>
     <n v="12"/>
     <n v="44712"/>
@@ -2996,7 +3604,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="2625"/>
+    <x v="10"/>
     <n v="5"/>
     <n v="15"/>
     <n v="39375"/>
@@ -3011,7 +3619,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="1958"/>
+    <x v="11"/>
     <n v="5"/>
     <n v="125"/>
     <n v="244750"/>
@@ -3026,7 +3634,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="3271"/>
+    <x v="12"/>
     <n v="5"/>
     <n v="300"/>
     <n v="981300"/>
@@ -3041,7 +3649,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="2091"/>
+    <x v="13"/>
     <n v="5"/>
     <n v="7"/>
     <n v="14637"/>
@@ -3056,7 +3664,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="2530"/>
+    <x v="14"/>
     <n v="5"/>
     <n v="125"/>
     <n v="316250"/>
@@ -3071,7 +3679,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="2825"/>
+    <x v="15"/>
     <n v="5"/>
     <n v="15"/>
     <n v="42375"/>
@@ -3086,7 +3694,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2513"/>
+    <x v="16"/>
     <n v="10"/>
     <n v="20"/>
     <n v="50260"/>
@@ -3101,7 +3709,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="883"/>
+    <x v="17"/>
     <n v="10"/>
     <n v="15"/>
     <n v="13245"/>
@@ -3116,7 +3724,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2087"/>
+    <x v="18"/>
     <n v="10"/>
     <n v="12"/>
     <n v="25044"/>
@@ -3131,7 +3739,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2563"/>
+    <x v="19"/>
     <n v="10"/>
     <n v="350"/>
     <n v="897050"/>
@@ -3146,7 +3754,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2846"/>
+    <x v="20"/>
     <n v="10"/>
     <n v="12"/>
     <n v="34152"/>
@@ -3161,7 +3769,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="997"/>
+    <x v="21"/>
     <n v="10"/>
     <n v="7"/>
     <n v="6979"/>
@@ -3176,7 +3784,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3421"/>
+    <x v="22"/>
     <n v="10"/>
     <n v="15"/>
     <n v="51315"/>
@@ -3191,7 +3799,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2291"/>
+    <x v="23"/>
     <n v="10"/>
     <n v="300"/>
     <n v="687300"/>
@@ -3206,7 +3814,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2290"/>
+    <x v="24"/>
     <n v="10"/>
     <n v="15"/>
     <n v="34350"/>
@@ -3221,7 +3829,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="2133"/>
+    <x v="25"/>
     <n v="10"/>
     <n v="7"/>
     <n v="14931"/>
@@ -3236,7 +3844,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3475"/>
+    <x v="26"/>
     <n v="10"/>
     <n v="350"/>
     <n v="1216250"/>
@@ -3251,7 +3859,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3686"/>
+    <x v="27"/>
     <n v="10"/>
     <n v="12"/>
     <n v="44232"/>
@@ -3266,7 +3874,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3319"/>
+    <x v="28"/>
     <n v="10"/>
     <n v="15"/>
     <n v="49785"/>
@@ -3281,7 +3889,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3617"/>
+    <x v="29"/>
     <n v="10"/>
     <n v="20"/>
     <n v="72340"/>
@@ -3296,7 +3904,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="1266"/>
+    <x v="30"/>
     <n v="10"/>
     <n v="350"/>
     <n v="443100"/>
@@ -3311,7 +3919,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="894"/>
+    <x v="31"/>
     <n v="120"/>
     <n v="7"/>
     <n v="6258"/>
@@ -3326,7 +3934,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="2725"/>
+    <x v="32"/>
     <n v="120"/>
     <n v="125"/>
     <n v="340625"/>
@@ -3341,7 +3949,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="3061"/>
+    <x v="33"/>
     <n v="120"/>
     <n v="12"/>
     <n v="36732"/>
@@ -3356,7 +3964,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="3958"/>
+    <x v="34"/>
     <n v="120"/>
     <n v="350"/>
     <n v="1385300"/>
@@ -3371,7 +3979,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="3920"/>
+    <x v="35"/>
     <n v="120"/>
     <n v="12"/>
     <n v="47040"/>
@@ -3386,7 +3994,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="3381"/>
+    <x v="36"/>
     <n v="120"/>
     <n v="125"/>
     <n v="422625"/>
@@ -3401,7 +4009,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="1094"/>
+    <x v="37"/>
     <n v="120"/>
     <n v="125"/>
     <n v="136750"/>
@@ -3416,7 +4024,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="4307"/>
+    <x v="38"/>
     <n v="250"/>
     <n v="300"/>
     <n v="1292100"/>
@@ -3431,7 +4039,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="878"/>
+    <x v="39"/>
     <n v="250"/>
     <n v="12"/>
     <n v="10536"/>
@@ -3446,7 +4054,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="496"/>
+    <x v="40"/>
     <n v="250"/>
     <n v="15"/>
     <n v="7440"/>
@@ -3461,7 +4069,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="3367"/>
+    <x v="41"/>
     <n v="250"/>
     <n v="15"/>
     <n v="50505"/>
@@ -3476,7 +4084,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="3880"/>
+    <x v="42"/>
     <n v="250"/>
     <n v="350"/>
     <n v="1358000"/>
@@ -3491,7 +4099,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="2055"/>
+    <x v="43"/>
     <n v="250"/>
     <n v="300"/>
     <n v="616500"/>
@@ -3506,7 +4114,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="4041"/>
+    <x v="44"/>
     <n v="250"/>
     <n v="20"/>
     <n v="80820"/>
@@ -3521,7 +4129,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="3237"/>
+    <x v="45"/>
     <n v="260"/>
     <n v="350"/>
     <n v="1132950"/>
@@ -3536,7 +4144,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="630"/>
+    <x v="46"/>
     <n v="260"/>
     <n v="12"/>
     <n v="7560"/>
@@ -3551,7 +4159,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="4210"/>
+    <x v="47"/>
     <n v="260"/>
     <n v="125"/>
     <n v="526250"/>
@@ -3566,7 +4174,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1127"/>
+    <x v="48"/>
     <n v="260"/>
     <n v="20"/>
     <n v="22540"/>
@@ -3581,7 +4189,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="3438"/>
+    <x v="49"/>
     <n v="260"/>
     <n v="7"/>
     <n v="24066"/>
@@ -3596,7 +4204,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="2015"/>
+    <x v="50"/>
     <n v="260"/>
     <n v="12"/>
     <n v="24180"/>
@@ -3611,7 +4219,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="2534"/>
+    <x v="51"/>
     <n v="260"/>
     <n v="7"/>
     <n v="17738"/>
@@ -3626,7 +4234,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="1384"/>
+    <x v="52"/>
     <n v="260"/>
     <n v="15"/>
     <n v="20760"/>
@@ -3641,7 +4249,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3561"/>
+    <x v="53"/>
     <n v="10"/>
     <n v="7"/>
     <n v="24927"/>
@@ -3656,7 +4264,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1823"/>
+    <x v="54"/>
     <n v="10"/>
     <n v="15"/>
     <n v="27345"/>
@@ -3671,7 +4279,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="2795"/>
+    <x v="55"/>
     <n v="10"/>
     <n v="7"/>
     <n v="19565"/>
@@ -3686,7 +4294,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="457"/>
+    <x v="56"/>
     <n v="120"/>
     <n v="7"/>
     <n v="3199"/>
@@ -3701,7 +4309,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="3785"/>
+    <x v="57"/>
     <n v="250"/>
     <n v="7"/>
     <n v="26495"/>
@@ -3716,7 +4324,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="748"/>
+    <x v="58"/>
     <n v="3"/>
     <n v="12"/>
     <n v="8976"/>
@@ -3731,7 +4339,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="1021"/>
+    <x v="59"/>
     <n v="3"/>
     <n v="350"/>
     <n v="357350"/>
@@ -3746,7 +4354,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="2076"/>
+    <x v="60"/>
     <n v="3"/>
     <n v="7"/>
     <n v="14532"/>
@@ -3761,7 +4369,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="4316"/>
+    <x v="61"/>
     <n v="3"/>
     <n v="12"/>
     <n v="51792"/>
@@ -3776,7 +4384,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="2654"/>
+    <x v="62"/>
     <n v="3"/>
     <n v="125"/>
     <n v="331750"/>
@@ -3791,7 +4399,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="4174"/>
+    <x v="63"/>
     <n v="3"/>
     <n v="12"/>
     <n v="50088"/>
@@ -3806,7 +4414,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="1675"/>
+    <x v="64"/>
     <n v="3"/>
     <n v="12"/>
     <n v="20100"/>
@@ -3821,7 +4429,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="1572"/>
+    <x v="65"/>
     <n v="3"/>
     <n v="300"/>
     <n v="471600"/>
@@ -3836,7 +4444,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="3736"/>
+    <x v="66"/>
     <n v="3"/>
     <n v="350"/>
     <n v="1307600"/>
@@ -3851,7 +4459,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="1914"/>
+    <x v="67"/>
     <n v="3"/>
     <n v="350"/>
     <n v="669900"/>
@@ -3866,7 +4474,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="2742"/>
+    <x v="68"/>
     <n v="5"/>
     <n v="15"/>
     <n v="41130"/>
@@ -3881,7 +4489,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="1499"/>
+    <x v="69"/>
     <n v="5"/>
     <n v="300"/>
     <n v="449700"/>
@@ -3896,7 +4504,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="3772"/>
+    <x v="70"/>
     <n v="5"/>
     <n v="20"/>
     <n v="75440"/>
@@ -3911,7 +4519,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="1112"/>
+    <x v="71"/>
     <n v="5"/>
     <n v="7"/>
     <n v="7784"/>
@@ -3926,7 +4534,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="1723"/>
+    <x v="72"/>
     <n v="5"/>
     <n v="300"/>
     <n v="516900"/>
@@ -3941,7 +4549,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="423"/>
+    <x v="73"/>
     <n v="5"/>
     <n v="125"/>
     <n v="52875"/>
@@ -3956,7 +4564,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="2368"/>
+    <x v="74"/>
     <n v="10"/>
     <n v="15"/>
     <n v="35520"/>
@@ -3971,7 +4579,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1586"/>
+    <x v="75"/>
     <n v="10"/>
     <n v="7"/>
     <n v="11102"/>
@@ -3986,7 +4594,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3386"/>
+    <x v="76"/>
     <n v="10"/>
     <n v="125"/>
     <n v="423250"/>
@@ -4001,7 +4609,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="852"/>
+    <x v="77"/>
     <n v="10"/>
     <n v="125"/>
     <n v="106500"/>
@@ -4016,7 +4624,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2783"/>
+    <x v="78"/>
     <n v="10"/>
     <n v="125"/>
     <n v="347875"/>
@@ -4031,7 +4639,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2684"/>
+    <x v="79"/>
     <n v="10"/>
     <n v="15"/>
     <n v="40260"/>
@@ -4046,7 +4654,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="4393"/>
+    <x v="80"/>
     <n v="10"/>
     <n v="12"/>
     <n v="52716"/>
@@ -4061,7 +4669,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="4083"/>
+    <x v="81"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1224900"/>
@@ -4076,7 +4684,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="2816"/>
+    <x v="82"/>
     <n v="10"/>
     <n v="350"/>
     <n v="985600"/>
@@ -4091,7 +4699,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="4294"/>
+    <x v="83"/>
     <n v="120"/>
     <n v="20"/>
     <n v="85880"/>
@@ -4106,7 +4714,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="2856"/>
+    <x v="84"/>
     <n v="120"/>
     <n v="7"/>
     <n v="19992"/>
@@ -4121,7 +4729,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="1407"/>
+    <x v="85"/>
     <n v="120"/>
     <n v="125"/>
     <n v="175875"/>
@@ -4136,7 +4744,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="3850"/>
+    <x v="86"/>
     <n v="120"/>
     <n v="125"/>
     <n v="481250"/>
@@ -4151,7 +4759,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="2856"/>
+    <x v="84"/>
     <n v="120"/>
     <n v="7"/>
     <n v="19992"/>
@@ -4166,7 +4774,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="1265"/>
+    <x v="87"/>
     <n v="250"/>
     <n v="7"/>
     <n v="8855"/>
@@ -4181,7 +4789,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="3892"/>
+    <x v="88"/>
     <n v="250"/>
     <n v="350"/>
     <n v="1362200"/>
@@ -4196,7 +4804,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="3068"/>
+    <x v="89"/>
     <n v="250"/>
     <n v="125"/>
     <n v="383500"/>
@@ -4211,7 +4819,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="2181"/>
+    <x v="90"/>
     <n v="250"/>
     <n v="125"/>
     <n v="272625"/>
@@ -4226,7 +4834,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="1356"/>
+    <x v="91"/>
     <n v="250"/>
     <n v="300"/>
     <n v="406800"/>
@@ -4241,7 +4849,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="2545"/>
+    <x v="92"/>
     <n v="250"/>
     <n v="300"/>
     <n v="763500"/>
@@ -4256,7 +4864,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="1814"/>
+    <x v="93"/>
     <n v="250"/>
     <n v="350"/>
     <n v="634900"/>
@@ -4271,7 +4879,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="1495"/>
+    <x v="94"/>
     <n v="250"/>
     <n v="125"/>
     <n v="186875"/>
@@ -4286,7 +4894,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="1154"/>
+    <x v="95"/>
     <n v="260"/>
     <n v="12"/>
     <n v="13848"/>
@@ -4301,7 +4909,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="4180"/>
+    <x v="96"/>
     <n v="260"/>
     <n v="15"/>
     <n v="62700"/>
@@ -4316,7 +4924,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1463"/>
+    <x v="97"/>
     <n v="3"/>
     <n v="125"/>
     <n v="182875"/>
@@ -4331,7 +4939,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="215"/>
+    <x v="98"/>
     <n v="3"/>
     <n v="12"/>
     <n v="2580"/>
@@ -4346,7 +4954,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="4099"/>
+    <x v="99"/>
     <n v="3"/>
     <n v="300"/>
     <n v="1229700"/>
@@ -4361,7 +4969,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="2660"/>
+    <x v="100"/>
     <n v="3"/>
     <n v="7"/>
     <n v="18620"/>
@@ -4376,7 +4984,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="566"/>
+    <x v="101"/>
     <n v="3"/>
     <n v="350"/>
     <n v="198100"/>
@@ -4391,7 +4999,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="3255"/>
+    <x v="102"/>
     <n v="5"/>
     <n v="12"/>
     <n v="39060"/>
@@ -4406,7 +5014,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="772"/>
+    <x v="103"/>
     <n v="5"/>
     <n v="20"/>
     <n v="15440"/>
@@ -4421,7 +5029,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="1135"/>
+    <x v="104"/>
     <n v="5"/>
     <n v="12"/>
     <n v="13620"/>
@@ -4436,7 +5044,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="3826"/>
+    <x v="105"/>
     <n v="5"/>
     <n v="125"/>
     <n v="478250"/>
@@ -4451,7 +5059,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="1193"/>
+    <x v="106"/>
     <n v="10"/>
     <n v="15"/>
     <n v="17895"/>
@@ -4466,7 +5074,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="2530"/>
+    <x v="14"/>
     <n v="10"/>
     <n v="300"/>
     <n v="759000"/>
@@ -4481,7 +5089,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="3451"/>
+    <x v="107"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1035300"/>
@@ -4496,7 +5104,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3059"/>
+    <x v="108"/>
     <n v="10"/>
     <n v="12"/>
     <n v="36708"/>
@@ -4511,7 +5119,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="3957"/>
+    <x v="109"/>
     <n v="10"/>
     <n v="125"/>
     <n v="494625"/>
@@ -4526,7 +5134,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3444"/>
+    <x v="110"/>
     <n v="10"/>
     <n v="12"/>
     <n v="41328"/>
@@ -4541,7 +5149,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="4388"/>
+    <x v="111"/>
     <n v="10"/>
     <n v="125"/>
     <n v="548500"/>
@@ -4556,7 +5164,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2106"/>
+    <x v="112"/>
     <n v="10"/>
     <n v="125"/>
     <n v="263250"/>
@@ -4571,7 +5179,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="799"/>
+    <x v="113"/>
     <n v="10"/>
     <n v="12"/>
     <n v="9588"/>
@@ -4586,7 +5194,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3154"/>
+    <x v="114"/>
     <n v="10"/>
     <n v="300"/>
     <n v="946200"/>
@@ -4601,7 +5209,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="4108"/>
+    <x v="115"/>
     <n v="10"/>
     <n v="350"/>
     <n v="1437800"/>
@@ -4616,7 +5224,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3760"/>
+    <x v="116"/>
     <n v="10"/>
     <n v="125"/>
     <n v="470000"/>
@@ -4631,7 +5239,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="377"/>
+    <x v="117"/>
     <n v="10"/>
     <n v="15"/>
     <n v="5655"/>
@@ -4646,7 +5254,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="2110"/>
+    <x v="118"/>
     <n v="10"/>
     <n v="7"/>
     <n v="14770"/>
@@ -4661,7 +5269,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="2334"/>
+    <x v="119"/>
     <n v="10"/>
     <n v="12"/>
     <n v="28008"/>
@@ -4676,7 +5284,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="580"/>
+    <x v="120"/>
     <n v="10"/>
     <n v="12"/>
     <n v="6960"/>
@@ -4691,7 +5299,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="2610"/>
+    <x v="121"/>
     <n v="120"/>
     <n v="20"/>
     <n v="52200"/>
@@ -4706,7 +5314,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="1598"/>
+    <x v="122"/>
     <n v="120"/>
     <n v="350"/>
     <n v="559300"/>
@@ -4721,7 +5329,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="1459"/>
+    <x v="123"/>
     <n v="120"/>
     <n v="350"/>
     <n v="510650"/>
@@ -4736,7 +5344,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="3284"/>
+    <x v="124"/>
     <n v="120"/>
     <n v="125"/>
     <n v="410500"/>
@@ -4751,7 +5359,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="1197"/>
+    <x v="125"/>
     <n v="120"/>
     <n v="125"/>
     <n v="149625"/>
@@ -4766,7 +5374,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="3774"/>
+    <x v="126"/>
     <n v="120"/>
     <n v="12"/>
     <n v="45288"/>
@@ -4781,7 +5389,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="2303"/>
+    <x v="127"/>
     <n v="120"/>
     <n v="20"/>
     <n v="46060"/>
@@ -4796,7 +5404,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="2572"/>
+    <x v="128"/>
     <n v="120"/>
     <n v="12"/>
     <n v="30864"/>
@@ -4811,7 +5419,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="320"/>
+    <x v="129"/>
     <n v="250"/>
     <n v="125"/>
     <n v="40000"/>
@@ -4826,7 +5434,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="2126"/>
+    <x v="130"/>
     <n v="250"/>
     <n v="300"/>
     <n v="637800"/>
@@ -4841,7 +5449,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="3275"/>
+    <x v="131"/>
     <n v="250"/>
     <n v="350"/>
     <n v="1146250"/>
@@ -4856,7 +5464,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="3582"/>
+    <x v="132"/>
     <n v="250"/>
     <n v="125"/>
     <n v="447750"/>
@@ -4871,7 +5479,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="783"/>
+    <x v="133"/>
     <n v="250"/>
     <n v="350"/>
     <n v="274050"/>
@@ -4886,7 +5494,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="1202"/>
+    <x v="134"/>
     <n v="250"/>
     <n v="350"/>
     <n v="420700"/>
@@ -4901,7 +5509,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="4056"/>
+    <x v="135"/>
     <n v="260"/>
     <n v="300"/>
     <n v="1216800"/>
@@ -4916,7 +5524,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="2144"/>
+    <x v="136"/>
     <n v="260"/>
     <n v="300"/>
     <n v="643200"/>
@@ -4931,7 +5539,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="3502"/>
+    <x v="137"/>
     <n v="260"/>
     <n v="125"/>
     <n v="437750"/>
@@ -4946,7 +5554,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="1397"/>
+    <x v="138"/>
     <n v="260"/>
     <n v="350"/>
     <n v="488950"/>
@@ -4961,7 +5569,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="679"/>
+    <x v="139"/>
     <n v="260"/>
     <n v="20"/>
     <n v="13580"/>
@@ -4976,7 +5584,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="2351"/>
+    <x v="140"/>
     <n v="260"/>
     <n v="20"/>
     <n v="47020"/>
@@ -4991,7 +5599,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="2043"/>
+    <x v="141"/>
     <n v="260"/>
     <n v="300"/>
     <n v="612900"/>
@@ -5006,7 +5614,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="3565"/>
+    <x v="142"/>
     <n v="3"/>
     <n v="125"/>
     <n v="445625"/>
@@ -5021,7 +5629,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="1401"/>
+    <x v="143"/>
     <n v="3"/>
     <n v="20"/>
     <n v="28020"/>
@@ -5036,7 +5644,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="2077"/>
+    <x v="144"/>
     <n v="3"/>
     <n v="300"/>
     <n v="623100"/>
@@ -5051,7 +5659,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="3643"/>
+    <x v="145"/>
     <n v="3"/>
     <n v="12"/>
     <n v="43716"/>
@@ -5066,7 +5674,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1105"/>
+    <x v="146"/>
     <n v="3"/>
     <n v="12"/>
     <n v="13260"/>
@@ -5081,7 +5689,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="2960"/>
+    <x v="147"/>
     <n v="5"/>
     <n v="7"/>
     <n v="20720"/>
@@ -5096,7 +5704,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="1201"/>
+    <x v="148"/>
     <n v="5"/>
     <n v="12"/>
     <n v="14412"/>
@@ -5111,7 +5719,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="2321"/>
+    <x v="149"/>
     <n v="5"/>
     <n v="7"/>
     <n v="16247"/>
@@ -5126,7 +5734,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="3640"/>
+    <x v="150"/>
     <n v="5"/>
     <n v="350"/>
     <n v="1274000"/>
@@ -5141,7 +5749,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="3972"/>
+    <x v="151"/>
     <n v="5"/>
     <n v="125"/>
     <n v="496500"/>
@@ -5156,7 +5764,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="3878"/>
+    <x v="152"/>
     <n v="5"/>
     <n v="125"/>
     <n v="484750"/>
@@ -5171,7 +5779,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="2278"/>
+    <x v="153"/>
     <n v="10"/>
     <n v="300"/>
     <n v="683400"/>
@@ -5186,7 +5794,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="1075"/>
+    <x v="154"/>
     <n v="10"/>
     <n v="125"/>
     <n v="134375"/>
@@ -5201,7 +5809,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="4050"/>
+    <x v="155"/>
     <n v="10"/>
     <n v="12"/>
     <n v="48600"/>
@@ -5216,7 +5824,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="3035"/>
+    <x v="156"/>
     <n v="10"/>
     <n v="300"/>
     <n v="910500"/>
@@ -5231,7 +5839,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="3636"/>
+    <x v="157"/>
     <n v="10"/>
     <n v="125"/>
     <n v="454500"/>
@@ -5246,7 +5854,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1379"/>
+    <x v="158"/>
     <n v="10"/>
     <n v="12"/>
     <n v="16548"/>
@@ -5261,7 +5869,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="4492"/>
+    <x v="159"/>
     <n v="10"/>
     <n v="125"/>
     <n v="561500"/>
@@ -5276,7 +5884,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="764"/>
+    <x v="160"/>
     <n v="10"/>
     <n v="15"/>
     <n v="11460"/>
@@ -5291,7 +5899,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1744"/>
+    <x v="161"/>
     <n v="10"/>
     <n v="125"/>
     <n v="218000"/>
@@ -5306,7 +5914,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2341"/>
+    <x v="162"/>
     <n v="10"/>
     <n v="125"/>
     <n v="292625"/>
@@ -5321,7 +5929,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="3835"/>
+    <x v="163"/>
     <n v="120"/>
     <n v="125"/>
     <n v="479375"/>
@@ -5336,7 +5944,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="1161"/>
+    <x v="164"/>
     <n v="250"/>
     <n v="300"/>
     <n v="348300"/>
@@ -5351,7 +5959,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="876"/>
+    <x v="165"/>
     <n v="250"/>
     <n v="12"/>
     <n v="10512"/>
@@ -5366,7 +5974,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="1705"/>
+    <x v="166"/>
     <n v="250"/>
     <n v="125"/>
     <n v="213125"/>
@@ -5381,7 +5989,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="1805"/>
+    <x v="167"/>
     <n v="250"/>
     <n v="300"/>
     <n v="541500"/>
@@ -5396,7 +6004,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="389"/>
+    <x v="168"/>
     <n v="250"/>
     <n v="350"/>
     <n v="136150"/>
@@ -5411,7 +6019,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="2745"/>
+    <x v="169"/>
     <n v="250"/>
     <n v="15"/>
     <n v="41175"/>
@@ -5426,7 +6034,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1459"/>
+    <x v="123"/>
     <n v="3"/>
     <n v="20"/>
     <n v="29180"/>
@@ -5441,7 +6049,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="3938"/>
+    <x v="170"/>
     <n v="10"/>
     <n v="7"/>
     <n v="27566"/>
@@ -5456,7 +6064,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="4236"/>
+    <x v="171"/>
     <n v="120"/>
     <n v="20"/>
     <n v="84720"/>
@@ -5471,7 +6079,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="3627"/>
+    <x v="172"/>
     <n v="250"/>
     <n v="12"/>
     <n v="43524"/>
@@ -5486,7 +6094,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="1756"/>
+    <x v="173"/>
     <n v="5"/>
     <n v="15"/>
     <n v="26340"/>
@@ -5501,7 +6109,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="307"/>
+    <x v="174"/>
     <n v="10"/>
     <n v="15"/>
     <n v="4605"/>
@@ -5516,7 +6124,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="4489"/>
+    <x v="175"/>
     <n v="10"/>
     <n v="15"/>
     <n v="67335"/>
@@ -5531,7 +6139,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="2167"/>
+    <x v="176"/>
     <n v="120"/>
     <n v="20"/>
     <n v="43340"/>
@@ -5546,7 +6154,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1137"/>
+    <x v="177"/>
     <n v="3"/>
     <n v="7"/>
     <n v="7959"/>
@@ -5561,7 +6169,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="1222"/>
+    <x v="178"/>
     <n v="3"/>
     <n v="300"/>
     <n v="366600"/>
@@ -5576,7 +6184,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="489"/>
+    <x v="179"/>
     <n v="3"/>
     <n v="350"/>
     <n v="171150"/>
@@ -5591,7 +6199,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="4133"/>
+    <x v="180"/>
     <n v="5"/>
     <n v="15"/>
     <n v="61995"/>
@@ -5606,7 +6214,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="2743"/>
+    <x v="181"/>
     <n v="5"/>
     <n v="300"/>
     <n v="822900"/>
@@ -5621,7 +6229,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="3699"/>
+    <x v="182"/>
     <n v="5"/>
     <n v="7"/>
     <n v="25893"/>
@@ -5636,7 +6244,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="4460"/>
+    <x v="183"/>
     <n v="5"/>
     <n v="300"/>
     <n v="1338000"/>
@@ -5651,7 +6259,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="1232"/>
+    <x v="184"/>
     <n v="5"/>
     <n v="125"/>
     <n v="154000"/>
@@ -5666,7 +6274,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2586"/>
+    <x v="185"/>
     <n v="10"/>
     <n v="7"/>
     <n v="18102"/>
@@ -5681,7 +6289,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="1332"/>
+    <x v="186"/>
     <n v="10"/>
     <n v="125"/>
     <n v="166500"/>
@@ -5696,7 +6304,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="4487"/>
+    <x v="187"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1346100"/>
@@ -5711,7 +6319,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3862"/>
+    <x v="188"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1158600"/>
@@ -5726,7 +6334,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1765"/>
+    <x v="189"/>
     <n v="10"/>
     <n v="350"/>
     <n v="617750"/>
@@ -5741,7 +6349,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3533"/>
+    <x v="190"/>
     <n v="10"/>
     <n v="125"/>
     <n v="441625"/>
@@ -5756,7 +6364,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2016"/>
+    <x v="191"/>
     <n v="10"/>
     <n v="15"/>
     <n v="30240"/>
@@ -5771,7 +6379,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2938"/>
+    <x v="192"/>
     <n v="10"/>
     <n v="20"/>
     <n v="58760"/>
@@ -5786,7 +6394,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3352"/>
+    <x v="193"/>
     <n v="10"/>
     <n v="20"/>
     <n v="67040"/>
@@ -5801,7 +6409,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="4409"/>
+    <x v="194"/>
     <n v="10"/>
     <n v="15"/>
     <n v="66135"/>
@@ -5816,7 +6424,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="3323"/>
+    <x v="195"/>
     <n v="10"/>
     <n v="15"/>
     <n v="49845"/>
@@ -5831,7 +6439,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="2430"/>
+    <x v="196"/>
     <n v="10"/>
     <n v="350"/>
     <n v="850500"/>
@@ -5846,7 +6454,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="535"/>
+    <x v="197"/>
     <n v="10"/>
     <n v="125"/>
     <n v="66875"/>
@@ -5861,7 +6469,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="1523"/>
+    <x v="198"/>
     <n v="120"/>
     <n v="12"/>
     <n v="18276"/>
@@ -5876,7 +6484,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="3631"/>
+    <x v="199"/>
     <n v="120"/>
     <n v="20"/>
     <n v="72620"/>
@@ -5891,7 +6499,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="1782"/>
+    <x v="200"/>
     <n v="120"/>
     <n v="350"/>
     <n v="623700"/>
@@ -5906,7 +6514,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="347"/>
+    <x v="201"/>
     <n v="250"/>
     <n v="12"/>
     <n v="4164"/>
@@ -5921,7 +6529,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="4147"/>
+    <x v="202"/>
     <n v="250"/>
     <n v="350"/>
     <n v="1451450"/>
@@ -5936,7 +6544,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="3509"/>
+    <x v="203"/>
     <n v="250"/>
     <n v="350"/>
     <n v="1228150"/>
@@ -5951,7 +6559,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="2774"/>
+    <x v="204"/>
     <n v="250"/>
     <n v="15"/>
     <n v="41610"/>
@@ -5966,7 +6574,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="2943"/>
+    <x v="205"/>
     <n v="260"/>
     <n v="350"/>
     <n v="1030050"/>
@@ -5981,7 +6589,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="4037"/>
+    <x v="206"/>
     <n v="260"/>
     <n v="125"/>
     <n v="504625"/>
@@ -5996,7 +6604,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="4146"/>
+    <x v="207"/>
     <n v="260"/>
     <n v="350"/>
     <n v="1451100"/>
@@ -6011,7 +6619,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="4123"/>
+    <x v="208"/>
     <n v="260"/>
     <n v="15"/>
     <n v="61845"/>
@@ -6026,7 +6634,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="1337"/>
+    <x v="209"/>
     <n v="260"/>
     <n v="350"/>
     <n v="467950"/>
@@ -6041,7 +6649,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="599"/>
+    <x v="210"/>
     <n v="5"/>
     <n v="7"/>
     <n v="4193"/>
@@ -6056,7 +6664,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="725"/>
+    <x v="211"/>
     <n v="10"/>
     <n v="7"/>
     <n v="5075"/>
@@ -6071,7 +6679,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="477"/>
+    <x v="212"/>
     <n v="10"/>
     <n v="7"/>
     <n v="3339"/>
@@ -6086,7 +6694,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2325"/>
+    <x v="213"/>
     <n v="10"/>
     <n v="7"/>
     <n v="16275"/>
@@ -6101,7 +6709,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="675"/>
+    <x v="214"/>
     <n v="10"/>
     <n v="12"/>
     <n v="8100"/>
@@ -6116,7 +6724,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="2990"/>
+    <x v="215"/>
     <n v="120"/>
     <n v="12"/>
     <n v="35880"/>
@@ -6131,7 +6739,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="1072"/>
+    <x v="216"/>
     <n v="250"/>
     <n v="7"/>
     <n v="7504"/>
@@ -6146,7 +6754,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="1048"/>
+    <x v="217"/>
     <n v="260"/>
     <n v="7"/>
     <n v="7336"/>
@@ -6161,7 +6769,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="469"/>
+    <x v="218"/>
     <n v="260"/>
     <n v="12"/>
     <n v="5628"/>
@@ -6176,7 +6784,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="804"/>
+    <x v="219"/>
     <n v="260"/>
     <n v="7"/>
     <n v="5628"/>
@@ -6191,7 +6799,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="4240"/>
+    <x v="220"/>
     <n v="3"/>
     <n v="12"/>
     <n v="50880"/>
@@ -6206,7 +6814,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="1976"/>
+    <x v="221"/>
     <n v="3"/>
     <n v="12"/>
     <n v="23712"/>
@@ -6221,7 +6829,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="1984"/>
+    <x v="222"/>
     <n v="3"/>
     <n v="20"/>
     <n v="39680"/>
@@ -6236,7 +6844,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="480"/>
+    <x v="223"/>
     <n v="3"/>
     <n v="300"/>
     <n v="144000"/>
@@ -6251,7 +6859,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="3551"/>
+    <x v="224"/>
     <n v="3"/>
     <n v="7"/>
     <n v="24857"/>
@@ -6266,7 +6874,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="1205"/>
+    <x v="225"/>
     <n v="3"/>
     <n v="15"/>
     <n v="18075"/>
@@ -6281,7 +6889,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="2480"/>
+    <x v="226"/>
     <n v="3"/>
     <n v="7"/>
     <n v="17360"/>
@@ -6296,7 +6904,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="2926"/>
+    <x v="227"/>
     <n v="3"/>
     <n v="7"/>
     <n v="20482"/>
@@ -6311,7 +6919,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="3210"/>
+    <x v="228"/>
     <n v="5"/>
     <n v="350"/>
     <n v="1123500"/>
@@ -6326,7 +6934,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="3221"/>
+    <x v="229"/>
     <n v="5"/>
     <n v="125"/>
     <n v="402625"/>
@@ -6341,7 +6949,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="2389"/>
+    <x v="230"/>
     <n v="5"/>
     <n v="350"/>
     <n v="836150"/>
@@ -6356,7 +6964,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="1127"/>
+    <x v="48"/>
     <n v="5"/>
     <n v="12"/>
     <n v="13524"/>
@@ -6371,7 +6979,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="319"/>
+    <x v="231"/>
     <n v="5"/>
     <n v="300"/>
     <n v="95700"/>
@@ -6386,7 +6994,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1610"/>
+    <x v="232"/>
     <n v="10"/>
     <n v="20"/>
     <n v="32200"/>
@@ -6401,7 +7009,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="4100"/>
+    <x v="233"/>
     <n v="10"/>
     <n v="125"/>
     <n v="512500"/>
@@ -6416,7 +7024,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1012"/>
+    <x v="234"/>
     <n v="10"/>
     <n v="125"/>
     <n v="126500"/>
@@ -6431,7 +7039,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="3337"/>
+    <x v="235"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1001100"/>
@@ -6446,7 +7054,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3955"/>
+    <x v="236"/>
     <n v="10"/>
     <n v="7"/>
     <n v="27685"/>
@@ -6461,7 +7069,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="4347"/>
+    <x v="237"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1304100"/>
@@ -6476,7 +7084,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1548"/>
+    <x v="238"/>
     <n v="10"/>
     <n v="350"/>
     <n v="541800"/>
@@ -6491,7 +7099,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="2153"/>
+    <x v="239"/>
     <n v="10"/>
     <n v="15"/>
     <n v="32295"/>
@@ -6506,7 +7114,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3789"/>
+    <x v="240"/>
     <n v="10"/>
     <n v="350"/>
     <n v="1326150"/>
@@ -6521,7 +7129,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="4364"/>
+    <x v="241"/>
     <n v="10"/>
     <n v="20"/>
     <n v="87280"/>
@@ -6536,7 +7144,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="4126"/>
+    <x v="242"/>
     <n v="10"/>
     <n v="125"/>
     <n v="515750"/>
@@ -6551,7 +7159,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1343"/>
+    <x v="243"/>
     <n v="10"/>
     <n v="125"/>
     <n v="167875"/>
@@ -6566,7 +7174,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="245"/>
+    <x v="244"/>
     <n v="10"/>
     <n v="20"/>
     <n v="4900"/>
@@ -6581,7 +7189,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3376"/>
+    <x v="245"/>
     <n v="10"/>
     <n v="20"/>
     <n v="67520"/>
@@ -6596,7 +7204,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1401"/>
+    <x v="143"/>
     <n v="10"/>
     <n v="7"/>
     <n v="9807"/>
@@ -6611,7 +7219,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="3483"/>
+    <x v="246"/>
     <n v="10"/>
     <n v="15"/>
     <n v="52245"/>
@@ -6626,7 +7234,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="2244"/>
+    <x v="247"/>
     <n v="120"/>
     <n v="15"/>
     <n v="33660"/>
@@ -6641,7 +7249,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="1360"/>
+    <x v="248"/>
     <n v="120"/>
     <n v="15"/>
     <n v="20400"/>
@@ -6656,7 +7264,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="279"/>
+    <x v="249"/>
     <n v="120"/>
     <n v="125"/>
     <n v="34875"/>
@@ -6671,7 +7279,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="2521"/>
+    <x v="250"/>
     <n v="120"/>
     <n v="350"/>
     <n v="882350"/>
@@ -6686,7 +7294,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="2433"/>
+    <x v="251"/>
     <n v="120"/>
     <n v="20"/>
     <n v="48660"/>
@@ -6701,7 +7309,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="1738"/>
+    <x v="252"/>
     <n v="120"/>
     <n v="20"/>
     <n v="34760"/>
@@ -6716,7 +7324,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="1106"/>
+    <x v="253"/>
     <n v="120"/>
     <n v="125"/>
     <n v="138250"/>
@@ -6731,7 +7339,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="3379"/>
+    <x v="254"/>
     <n v="120"/>
     <n v="125"/>
     <n v="422375"/>
@@ -6746,7 +7354,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="1221"/>
+    <x v="255"/>
     <n v="120"/>
     <n v="20"/>
     <n v="24420"/>
@@ -6761,7 +7369,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="213"/>
+    <x v="256"/>
     <n v="120"/>
     <n v="300"/>
     <n v="63900"/>
@@ -6776,7 +7384,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="3335"/>
+    <x v="257"/>
     <n v="250"/>
     <n v="20"/>
     <n v="66700"/>
@@ -6791,7 +7399,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="1260"/>
+    <x v="258"/>
     <n v="250"/>
     <n v="20"/>
     <n v="25200"/>
@@ -6806,7 +7414,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="3034"/>
+    <x v="259"/>
     <n v="250"/>
     <n v="20"/>
     <n v="60680"/>
@@ -6821,7 +7429,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="2929"/>
+    <x v="260"/>
     <n v="250"/>
     <n v="20"/>
     <n v="58580"/>
@@ -6836,7 +7444,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="2389"/>
+    <x v="230"/>
     <n v="250"/>
     <n v="7"/>
     <n v="16723"/>
@@ -6851,7 +7459,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="3086"/>
+    <x v="261"/>
     <n v="250"/>
     <n v="7"/>
     <n v="21602"/>
@@ -6866,7 +7474,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="745"/>
+    <x v="262"/>
     <n v="260"/>
     <n v="350"/>
     <n v="260750"/>
@@ -6881,7 +7489,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="1266"/>
+    <x v="30"/>
     <n v="260"/>
     <n v="350"/>
     <n v="443100"/>
@@ -6896,7 +7504,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="3790"/>
+    <x v="263"/>
     <n v="260"/>
     <n v="350"/>
     <n v="1326500"/>
@@ -6911,7 +7519,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="4287"/>
+    <x v="264"/>
     <n v="260"/>
     <n v="300"/>
     <n v="1286100"/>
@@ -6926,7 +7534,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3193"/>
+    <x v="265"/>
     <n v="10"/>
     <n v="15"/>
     <n v="47895"/>
@@ -6941,7 +7549,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="1967"/>
+    <x v="266"/>
     <n v="3"/>
     <n v="20"/>
     <n v="39340"/>
@@ -6956,7 +7564,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="631"/>
+    <x v="267"/>
     <n v="3"/>
     <n v="15"/>
     <n v="9465"/>
@@ -6971,7 +7579,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="3469"/>
+    <x v="268"/>
     <n v="3"/>
     <n v="12"/>
     <n v="41628"/>
@@ -6986,7 +7594,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="570"/>
+    <x v="269"/>
     <n v="3"/>
     <n v="12"/>
     <n v="6840"/>
@@ -7001,7 +7609,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="3215"/>
+    <x v="270"/>
     <n v="3"/>
     <n v="15"/>
     <n v="48225"/>
@@ -7016,7 +7624,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="3754"/>
+    <x v="271"/>
     <n v="3"/>
     <n v="7"/>
     <n v="26278"/>
@@ -7031,7 +7639,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="2187"/>
+    <x v="272"/>
     <n v="3"/>
     <n v="125"/>
     <n v="273375"/>
@@ -7046,7 +7654,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="1959"/>
+    <x v="273"/>
     <n v="5"/>
     <n v="350"/>
     <n v="685650"/>
@@ -7061,7 +7669,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="2181"/>
+    <x v="90"/>
     <n v="5"/>
     <n v="350"/>
     <n v="763350"/>
@@ -7076,7 +7684,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="3559"/>
+    <x v="274"/>
     <n v="5"/>
     <n v="7"/>
     <n v="24913"/>
@@ -7091,7 +7699,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="2205"/>
+    <x v="275"/>
     <n v="5"/>
     <n v="12"/>
     <n v="26460"/>
@@ -7106,7 +7714,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1890"/>
+    <x v="276"/>
     <n v="10"/>
     <n v="350"/>
     <n v="661500"/>
@@ -7121,7 +7729,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="1296"/>
+    <x v="277"/>
     <n v="10"/>
     <n v="12"/>
     <n v="15552"/>
@@ -7136,7 +7744,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="775"/>
+    <x v="278"/>
     <n v="10"/>
     <n v="350"/>
     <n v="271250"/>
@@ -7151,7 +7759,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="2417"/>
+    <x v="279"/>
     <n v="120"/>
     <n v="125"/>
     <n v="302125"/>
@@ -7166,7 +7774,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="1158"/>
+    <x v="280"/>
     <n v="120"/>
     <n v="125"/>
     <n v="144750"/>
@@ -7181,7 +7789,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="803"/>
+    <x v="281"/>
     <n v="120"/>
     <n v="15"/>
     <n v="12045"/>
@@ -7196,7 +7804,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="3705"/>
+    <x v="282"/>
     <n v="120"/>
     <n v="350"/>
     <n v="1296750"/>
@@ -7211,7 +7819,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="589"/>
+    <x v="283"/>
     <n v="120"/>
     <n v="7"/>
     <n v="4123"/>
@@ -7226,7 +7834,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="3797"/>
+    <x v="284"/>
     <n v="120"/>
     <n v="300"/>
     <n v="1139100"/>
@@ -7241,7 +7849,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="1321"/>
+    <x v="285"/>
     <n v="120"/>
     <n v="350"/>
     <n v="462350"/>
@@ -7256,7 +7864,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="3999"/>
+    <x v="286"/>
     <n v="250"/>
     <n v="15"/>
     <n v="59985"/>
@@ -7271,7 +7879,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="4256"/>
+    <x v="287"/>
     <n v="250"/>
     <n v="7"/>
     <n v="29792"/>
@@ -7286,7 +7894,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="1643"/>
+    <x v="288"/>
     <n v="250"/>
     <n v="300"/>
     <n v="492900"/>
@@ -7301,7 +7909,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="1912"/>
+    <x v="289"/>
     <n v="250"/>
     <n v="20"/>
     <n v="38240"/>
@@ -7316,7 +7924,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="1610"/>
+    <x v="232"/>
     <n v="250"/>
     <n v="300"/>
     <n v="483000"/>
@@ -7331,7 +7939,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="2160"/>
+    <x v="290"/>
     <n v="260"/>
     <n v="125"/>
     <n v="270000"/>
@@ -7346,7 +7954,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="466"/>
+    <x v="291"/>
     <n v="260"/>
     <n v="350"/>
     <n v="163100"/>
@@ -7361,7 +7969,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="328"/>
+    <x v="292"/>
     <n v="260"/>
     <n v="350"/>
     <n v="114800"/>
@@ -7376,7 +7984,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="4099"/>
+    <x v="99"/>
     <n v="260"/>
     <n v="7"/>
     <n v="28693"/>
@@ -7391,7 +7999,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="990"/>
+    <x v="293"/>
     <n v="260"/>
     <n v="350"/>
     <n v="346500"/>
@@ -7406,7 +8014,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="1433"/>
+    <x v="294"/>
     <n v="5"/>
     <n v="20"/>
     <n v="28660"/>
@@ -7421,7 +8029,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1478"/>
+    <x v="295"/>
     <n v="10"/>
     <n v="15"/>
     <n v="22170"/>
@@ -7436,7 +8044,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="3798"/>
+    <x v="296"/>
     <n v="10"/>
     <n v="15"/>
     <n v="56970"/>
@@ -7451,7 +8059,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="447"/>
+    <x v="297"/>
     <n v="10"/>
     <n v="15"/>
     <n v="6705"/>
@@ -7466,7 +8074,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1711"/>
+    <x v="298"/>
     <n v="10"/>
     <n v="20"/>
     <n v="34220"/>
@@ -7481,7 +8089,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="745"/>
+    <x v="262"/>
     <n v="120"/>
     <n v="20"/>
     <n v="14900"/>
@@ -7496,7 +8104,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="1732"/>
+    <x v="299"/>
     <n v="120"/>
     <n v="7"/>
     <n v="12124"/>
@@ -7511,7 +8119,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="1759"/>
+    <x v="300"/>
     <n v="250"/>
     <n v="15"/>
     <n v="26385"/>
@@ -7526,7 +8134,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="338"/>
+    <x v="301"/>
     <n v="3"/>
     <n v="12"/>
     <n v="4056"/>
@@ -7541,7 +8149,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="3911"/>
+    <x v="302"/>
     <n v="3"/>
     <n v="12"/>
     <n v="46932"/>
@@ -7556,7 +8164,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="3691"/>
+    <x v="303"/>
     <n v="3"/>
     <n v="20"/>
     <n v="73820"/>
@@ -7571,7 +8179,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="4473"/>
+    <x v="304"/>
     <n v="5"/>
     <n v="12"/>
     <n v="53676"/>
@@ -7586,7 +8194,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="383"/>
+    <x v="305"/>
     <n v="5"/>
     <n v="12"/>
     <n v="4596"/>
@@ -7601,7 +8209,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3105"/>
+    <x v="306"/>
     <n v="10"/>
     <n v="7"/>
     <n v="21735"/>
@@ -7616,7 +8224,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="1062"/>
+    <x v="307"/>
     <n v="120"/>
     <n v="15"/>
     <n v="15930"/>
@@ -7631,7 +8239,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="4083"/>
+    <x v="81"/>
     <n v="120"/>
     <n v="7"/>
     <n v="28581"/>
@@ -7646,7 +8254,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="3974"/>
+    <x v="308"/>
     <n v="120"/>
     <n v="7"/>
     <n v="27818"/>
@@ -7661,7 +8269,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="3723"/>
+    <x v="309"/>
     <n v="120"/>
     <n v="7"/>
     <n v="26061"/>
@@ -7676,7 +8284,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="2435"/>
+    <x v="310"/>
     <n v="250"/>
     <n v="12"/>
     <n v="29220"/>
@@ -7691,7 +8299,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="1678"/>
+    <x v="311"/>
     <n v="250"/>
     <n v="12"/>
     <n v="20136"/>
@@ -7706,7 +8314,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="1763"/>
+    <x v="312"/>
     <n v="250"/>
     <n v="7"/>
     <n v="12341"/>
@@ -7721,7 +8329,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="4473"/>
+    <x v="304"/>
     <n v="260"/>
     <n v="7"/>
     <n v="31311"/>
@@ -7736,7 +8344,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="1246"/>
+    <x v="313"/>
     <n v="3"/>
     <n v="350"/>
     <n v="436100"/>
@@ -7751,7 +8359,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="1615"/>
+    <x v="314"/>
     <n v="3"/>
     <n v="300"/>
     <n v="484500"/>
@@ -7766,7 +8374,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="749"/>
+    <x v="315"/>
     <n v="3"/>
     <n v="300"/>
     <n v="224700"/>
@@ -7781,7 +8389,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="1318"/>
+    <x v="316"/>
     <n v="5"/>
     <n v="20"/>
     <n v="26360"/>
@@ -7796,7 +8404,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="2882"/>
+    <x v="317"/>
     <n v="5"/>
     <n v="300"/>
     <n v="864600"/>
@@ -7811,7 +8419,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="3039"/>
+    <x v="318"/>
     <n v="5"/>
     <n v="125"/>
     <n v="379875"/>
@@ -7826,7 +8434,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2484"/>
+    <x v="319"/>
     <n v="10"/>
     <n v="300"/>
     <n v="745200"/>
@@ -7841,7 +8449,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3169"/>
+    <x v="320"/>
     <n v="10"/>
     <n v="300"/>
     <n v="950700"/>
@@ -7856,7 +8464,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="4080"/>
+    <x v="321"/>
     <n v="10"/>
     <n v="125"/>
     <n v="510000"/>
@@ -7871,7 +8479,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3943"/>
+    <x v="322"/>
     <n v="10"/>
     <n v="15"/>
     <n v="59145"/>
@@ -7886,7 +8494,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="784"/>
+    <x v="323"/>
     <n v="10"/>
     <n v="15"/>
     <n v="11760"/>
@@ -7901,7 +8509,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="253"/>
+    <x v="324"/>
     <n v="10"/>
     <n v="20"/>
     <n v="5060"/>
@@ -7916,7 +8524,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="1316"/>
+    <x v="325"/>
     <n v="10"/>
     <n v="300"/>
     <n v="394800"/>
@@ -7931,7 +8539,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="808"/>
+    <x v="326"/>
     <n v="10"/>
     <n v="300"/>
     <n v="242400"/>
@@ -7946,7 +8554,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="3295"/>
+    <x v="327"/>
     <n v="10"/>
     <n v="12"/>
     <n v="39540"/>
@@ -7961,7 +8569,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="520"/>
+    <x v="328"/>
     <n v="10"/>
     <n v="7"/>
     <n v="3640"/>
@@ -7976,7 +8584,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="799"/>
+    <x v="113"/>
     <n v="120"/>
     <n v="300"/>
     <n v="239700"/>
@@ -7991,7 +8599,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="3942"/>
+    <x v="329"/>
     <n v="120"/>
     <n v="20"/>
     <n v="78840"/>
@@ -8006,7 +8614,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="2498"/>
+    <x v="330"/>
     <n v="120"/>
     <n v="125"/>
     <n v="312250"/>
@@ -8021,7 +8629,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="2517"/>
+    <x v="331"/>
     <n v="120"/>
     <n v="20"/>
     <n v="50340"/>
@@ -8036,7 +8644,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="3182"/>
+    <x v="332"/>
     <n v="120"/>
     <n v="20"/>
     <n v="63640"/>
@@ -8051,7 +8659,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="1145"/>
+    <x v="333"/>
     <n v="120"/>
     <n v="300"/>
     <n v="343500"/>
@@ -8066,7 +8674,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="895"/>
+    <x v="334"/>
     <n v="120"/>
     <n v="20"/>
     <n v="17900"/>
@@ -8081,7 +8689,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="3814"/>
+    <x v="335"/>
     <n v="250"/>
     <n v="12"/>
     <n v="45768"/>
@@ -8096,7 +8704,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="1188"/>
+    <x v="336"/>
     <n v="250"/>
     <n v="300"/>
     <n v="356400"/>
@@ -8111,7 +8719,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="2233"/>
+    <x v="337"/>
     <n v="250"/>
     <n v="300"/>
     <n v="669900"/>
@@ -8126,7 +8734,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="421"/>
+    <x v="338"/>
     <n v="260"/>
     <n v="125"/>
     <n v="52625"/>
@@ -8141,7 +8749,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="269"/>
+    <x v="339"/>
     <n v="260"/>
     <n v="350"/>
     <n v="94150"/>
@@ -8156,7 +8764,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="3766"/>
+    <x v="340"/>
     <n v="260"/>
     <n v="125"/>
     <n v="470750"/>
@@ -8171,7 +8779,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="952"/>
+    <x v="341"/>
     <n v="260"/>
     <n v="20"/>
     <n v="19040"/>
@@ -8186,7 +8794,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="2964"/>
+    <x v="342"/>
     <n v="260"/>
     <n v="300"/>
     <n v="889200"/>
@@ -8201,7 +8809,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="1505"/>
+    <x v="343"/>
     <n v="5"/>
     <n v="7"/>
     <n v="10535"/>
@@ -8216,7 +8824,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="1678"/>
+    <x v="311"/>
     <n v="5"/>
     <n v="20"/>
     <n v="33560"/>
@@ -8231,7 +8839,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="4249"/>
+    <x v="344"/>
     <n v="10"/>
     <n v="7"/>
     <n v="29743"/>
@@ -8246,7 +8854,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="1677"/>
+    <x v="345"/>
     <n v="260"/>
     <n v="20"/>
     <n v="33540"/>
@@ -8261,7 +8869,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="3051"/>
+    <x v="346"/>
     <n v="3"/>
     <n v="125"/>
     <n v="381375"/>
@@ -8276,7 +8884,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="3372"/>
+    <x v="347"/>
     <n v="3"/>
     <n v="15"/>
     <n v="50580"/>
@@ -8291,7 +8899,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="1686"/>
+    <x v="348"/>
     <n v="3"/>
     <n v="350"/>
     <n v="590100"/>
@@ -8306,7 +8914,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="3086"/>
+    <x v="261"/>
     <n v="5"/>
     <n v="15"/>
     <n v="46290"/>
@@ -8321,7 +8929,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="4150"/>
+    <x v="349"/>
     <n v="5"/>
     <n v="20"/>
     <n v="83000"/>
@@ -8336,7 +8944,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="3027"/>
+    <x v="350"/>
     <n v="5"/>
     <n v="20"/>
     <n v="60540"/>
@@ -8351,7 +8959,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="4359"/>
+    <x v="351"/>
     <n v="5"/>
     <n v="300"/>
     <n v="1307700"/>
@@ -8366,7 +8974,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="3628"/>
+    <x v="352"/>
     <n v="5"/>
     <n v="300"/>
     <n v="1088400"/>
@@ -8381,7 +8989,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="1589"/>
+    <x v="353"/>
     <n v="5"/>
     <n v="15"/>
     <n v="23835"/>
@@ -8396,7 +9004,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2679"/>
+    <x v="354"/>
     <n v="10"/>
     <n v="125"/>
     <n v="334875"/>
@@ -8411,7 +9019,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="3401"/>
+    <x v="355"/>
     <n v="10"/>
     <n v="7"/>
     <n v="23807"/>
@@ -8426,7 +9034,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2815"/>
+    <x v="356"/>
     <n v="10"/>
     <n v="7"/>
     <n v="19705"/>
@@ -8441,7 +9049,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2964"/>
+    <x v="342"/>
     <n v="10"/>
     <n v="20"/>
     <n v="59280"/>
@@ -8456,7 +9064,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="4173"/>
+    <x v="357"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1251900"/>
@@ -8471,7 +9079,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1157"/>
+    <x v="358"/>
     <n v="10"/>
     <n v="7"/>
     <n v="8099"/>
@@ -8486,7 +9094,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="3065"/>
+    <x v="359"/>
     <n v="10"/>
     <n v="7"/>
     <n v="21455"/>
@@ -8501,7 +9109,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="1962"/>
+    <x v="360"/>
     <n v="10"/>
     <n v="7"/>
     <n v="13734"/>
@@ -8516,7 +9124,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="4080"/>
+    <x v="321"/>
     <n v="10"/>
     <n v="20"/>
     <n v="81600"/>
@@ -8531,7 +9139,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="1713"/>
+    <x v="361"/>
     <n v="10"/>
     <n v="20"/>
     <n v="34260"/>
@@ -8546,7 +9154,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2795"/>
+    <x v="55"/>
     <n v="10"/>
     <n v="350"/>
     <n v="978250"/>
@@ -8561,7 +9169,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="4082"/>
+    <x v="362"/>
     <n v="10"/>
     <n v="7"/>
     <n v="28574"/>
@@ -8576,7 +9184,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="1691"/>
+    <x v="363"/>
     <n v="10"/>
     <n v="350"/>
     <n v="591850"/>
@@ -8591,7 +9199,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="2305"/>
+    <x v="364"/>
     <n v="120"/>
     <n v="12"/>
     <n v="27660"/>
@@ -8606,7 +9214,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="3401"/>
+    <x v="355"/>
     <n v="120"/>
     <n v="7"/>
     <n v="23807"/>
@@ -8621,7 +9229,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="2288"/>
+    <x v="365"/>
     <n v="120"/>
     <n v="7"/>
     <n v="16016"/>
@@ -8636,7 +9244,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="2399"/>
+    <x v="366"/>
     <n v="120"/>
     <n v="300"/>
     <n v="719700"/>
@@ -8651,7 +9259,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="4086"/>
+    <x v="367"/>
     <n v="120"/>
     <n v="300"/>
     <n v="1225800"/>
@@ -8666,7 +9274,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="2651"/>
+    <x v="368"/>
     <n v="250"/>
     <n v="350"/>
     <n v="927850"/>
@@ -8681,7 +9289,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="3971"/>
+    <x v="369"/>
     <n v="250"/>
     <n v="7"/>
     <n v="27797"/>
@@ -8696,7 +9304,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="2512"/>
+    <x v="370"/>
     <n v="250"/>
     <n v="350"/>
     <n v="879200"/>
@@ -8711,7 +9319,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="2745"/>
+    <x v="169"/>
     <n v="250"/>
     <n v="350"/>
     <n v="960750"/>
@@ -8726,7 +9334,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="1903"/>
+    <x v="371"/>
     <n v="250"/>
     <n v="300"/>
     <n v="570900"/>
@@ -8741,7 +9349,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="647"/>
+    <x v="372"/>
     <n v="250"/>
     <n v="300"/>
     <n v="194100"/>
@@ -8756,7 +9364,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="2914"/>
+    <x v="373"/>
     <n v="260"/>
     <n v="20"/>
     <n v="58280"/>
@@ -8771,7 +9379,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="1889"/>
+    <x v="374"/>
     <n v="260"/>
     <n v="7"/>
     <n v="13223"/>
@@ -8786,7 +9394,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="1466"/>
+    <x v="375"/>
     <n v="260"/>
     <n v="20"/>
     <n v="29320"/>
@@ -8801,7 +9409,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="887"/>
+    <x v="376"/>
     <n v="260"/>
     <n v="300"/>
     <n v="266100"/>
@@ -8816,7 +9424,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="395"/>
+    <x v="377"/>
     <n v="260"/>
     <n v="20"/>
     <n v="7900"/>
@@ -8831,7 +9439,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="1693"/>
+    <x v="378"/>
     <n v="260"/>
     <n v="15"/>
     <n v="25395"/>
@@ -8846,7 +9454,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="2459"/>
+    <x v="379"/>
     <n v="260"/>
     <n v="12"/>
     <n v="29508"/>
@@ -8861,7 +9469,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="2649"/>
+    <x v="380"/>
     <n v="260"/>
     <n v="300"/>
     <n v="794700"/>
@@ -8876,7 +9484,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="3608"/>
+    <x v="381"/>
     <n v="250"/>
     <n v="20"/>
     <n v="72160"/>
@@ -8891,7 +9499,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1073"/>
+    <x v="382"/>
     <n v="3"/>
     <n v="300"/>
     <n v="321900"/>
@@ -8906,7 +9514,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="1754"/>
+    <x v="383"/>
     <n v="3"/>
     <n v="12"/>
     <n v="21048"/>
@@ -8921,7 +9529,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="2167"/>
+    <x v="176"/>
     <n v="5"/>
     <n v="300"/>
     <n v="650100"/>
@@ -8936,7 +9544,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="1319"/>
+    <x v="384"/>
     <n v="5"/>
     <n v="350"/>
     <n v="461650"/>
@@ -8951,7 +9559,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="1679"/>
+    <x v="385"/>
     <n v="5"/>
     <n v="300"/>
     <n v="503700"/>
@@ -8966,7 +9574,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="1252"/>
+    <x v="386"/>
     <n v="5"/>
     <n v="12"/>
     <n v="15024"/>
@@ -8981,7 +9589,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="3493"/>
+    <x v="387"/>
     <n v="5"/>
     <n v="125"/>
     <n v="436625"/>
@@ -8996,7 +9604,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="1697"/>
+    <x v="388"/>
     <n v="5"/>
     <n v="7"/>
     <n v="11879"/>
@@ -9011,7 +9619,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="1156"/>
+    <x v="389"/>
     <n v="5"/>
     <n v="125"/>
     <n v="144500"/>
@@ -9026,7 +9634,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="726"/>
+    <x v="390"/>
     <n v="5"/>
     <n v="300"/>
     <n v="217800"/>
@@ -9041,7 +9649,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="1153"/>
+    <x v="391"/>
     <n v="10"/>
     <n v="300"/>
     <n v="345900"/>
@@ -9056,7 +9664,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2720"/>
+    <x v="392"/>
     <n v="10"/>
     <n v="350"/>
     <n v="952000"/>
@@ -9071,7 +9679,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3658"/>
+    <x v="393"/>
     <n v="10"/>
     <n v="15"/>
     <n v="54870"/>
@@ -9086,7 +9694,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2950"/>
+    <x v="394"/>
     <n v="10"/>
     <n v="300"/>
     <n v="885000"/>
@@ -9101,7 +9709,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1821"/>
+    <x v="395"/>
     <n v="10"/>
     <n v="15"/>
     <n v="27315"/>
@@ -9116,7 +9724,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="4174"/>
+    <x v="63"/>
     <n v="10"/>
     <n v="12"/>
     <n v="50088"/>
@@ -9131,7 +9739,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1127"/>
+    <x v="48"/>
     <n v="10"/>
     <n v="300"/>
     <n v="338100"/>
@@ -9146,7 +9754,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2209"/>
+    <x v="396"/>
     <n v="10"/>
     <n v="12"/>
     <n v="26508"/>
@@ -9161,7 +9769,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="862"/>
+    <x v="397"/>
     <n v="10"/>
     <n v="125"/>
     <n v="107750"/>
@@ -9176,7 +9784,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="3805"/>
+    <x v="398"/>
     <n v="120"/>
     <n v="15"/>
     <n v="57075"/>
@@ -9191,7 +9799,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="1415"/>
+    <x v="399"/>
     <n v="120"/>
     <n v="300"/>
     <n v="424500"/>
@@ -9206,7 +9814,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="2231"/>
+    <x v="400"/>
     <n v="120"/>
     <n v="350"/>
     <n v="780850"/>
@@ -9221,7 +9829,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="3649"/>
+    <x v="6"/>
     <n v="120"/>
     <n v="125"/>
     <n v="456125"/>
@@ -9236,7 +9844,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="2948"/>
+    <x v="401"/>
     <n v="120"/>
     <n v="125"/>
     <n v="368500"/>
@@ -9251,7 +9859,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="3395"/>
+    <x v="402"/>
     <n v="120"/>
     <n v="350"/>
     <n v="1188250"/>
@@ -9266,7 +9874,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="2650"/>
+    <x v="403"/>
     <n v="250"/>
     <n v="12"/>
     <n v="31800"/>
@@ -9281,7 +9889,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="585"/>
+    <x v="404"/>
     <n v="250"/>
     <n v="300"/>
     <n v="175500"/>
@@ -9296,7 +9904,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="1316"/>
+    <x v="325"/>
     <n v="250"/>
     <n v="350"/>
     <n v="460600"/>
@@ -9311,7 +9919,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="4459"/>
+    <x v="405"/>
     <n v="250"/>
     <n v="12"/>
     <n v="53508"/>
@@ -9326,7 +9934,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="2711"/>
+    <x v="406"/>
     <n v="250"/>
     <n v="300"/>
     <n v="813300"/>
@@ -9341,7 +9949,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="2621"/>
+    <x v="407"/>
     <n v="250"/>
     <n v="12"/>
     <n v="31452"/>
@@ -9356,7 +9964,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="3613"/>
+    <x v="408"/>
     <n v="250"/>
     <n v="15"/>
     <n v="54195"/>
@@ -9371,7 +9979,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="1847"/>
+    <x v="409"/>
     <n v="250"/>
     <n v="125"/>
     <n v="230875"/>
@@ -9386,7 +9994,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="2996"/>
+    <x v="410"/>
     <n v="260"/>
     <n v="350"/>
     <n v="1048600"/>
@@ -9401,7 +10009,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="2838"/>
+    <x v="411"/>
     <n v="260"/>
     <n v="350"/>
     <n v="993300"/>
@@ -9416,7 +10024,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="1302"/>
+    <x v="412"/>
     <n v="260"/>
     <n v="15"/>
     <n v="19530"/>
@@ -9431,7 +10039,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="1536"/>
+    <x v="413"/>
     <n v="260"/>
     <n v="20"/>
     <n v="30720"/>
@@ -9446,7 +10054,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="1291"/>
+    <x v="414"/>
     <n v="3"/>
     <n v="20"/>
     <n v="25820"/>
@@ -9461,7 +10069,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1213"/>
+    <x v="415"/>
     <n v="3"/>
     <n v="7"/>
     <n v="8491"/>
@@ -9476,7 +10084,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="2370"/>
+    <x v="416"/>
     <n v="3"/>
     <n v="12"/>
     <n v="28440"/>
@@ -9491,7 +10099,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="1979"/>
+    <x v="417"/>
     <n v="3"/>
     <n v="7"/>
     <n v="13853"/>
@@ -9506,7 +10114,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="2879"/>
+    <x v="418"/>
     <n v="10"/>
     <n v="20"/>
     <n v="57580"/>
@@ -9521,7 +10129,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="1707"/>
+    <x v="419"/>
     <n v="10"/>
     <n v="20"/>
     <n v="34140"/>
@@ -9536,7 +10144,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2933"/>
+    <x v="420"/>
     <n v="10"/>
     <n v="7"/>
     <n v="20531"/>
@@ -9551,7 +10159,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="1014"/>
+    <x v="421"/>
     <n v="120"/>
     <n v="12"/>
     <n v="12168"/>
@@ -9566,7 +10174,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="693"/>
+    <x v="422"/>
     <n v="120"/>
     <n v="15"/>
     <n v="10395"/>
@@ -9581,7 +10189,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="3741"/>
+    <x v="423"/>
     <n v="250"/>
     <n v="7"/>
     <n v="26187"/>
@@ -9596,7 +10204,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="3116"/>
+    <x v="424"/>
     <n v="250"/>
     <n v="20"/>
     <n v="62320"/>
@@ -9611,7 +10219,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="3995"/>
+    <x v="425"/>
     <n v="250"/>
     <n v="7"/>
     <n v="27965"/>
@@ -9626,7 +10234,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="953"/>
+    <x v="426"/>
     <n v="260"/>
     <n v="20"/>
     <n v="19060"/>
@@ -9641,7 +10249,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="2530"/>
+    <x v="14"/>
     <n v="260"/>
     <n v="15"/>
     <n v="37950"/>
@@ -9656,7 +10264,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="2565"/>
+    <x v="427"/>
     <n v="260"/>
     <n v="12"/>
     <n v="30780"/>
@@ -9671,7 +10279,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="4297"/>
+    <x v="428"/>
     <n v="3"/>
     <n v="12"/>
     <n v="51564"/>
@@ -9686,7 +10294,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="2871"/>
+    <x v="429"/>
     <n v="5"/>
     <n v="7"/>
     <n v="20097"/>
@@ -9701,7 +10309,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3537"/>
+    <x v="430"/>
     <n v="10"/>
     <n v="12"/>
     <n v="42444"/>
@@ -9716,7 +10324,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="1598"/>
+    <x v="122"/>
     <n v="3"/>
     <n v="125"/>
     <n v="199750"/>
@@ -9731,7 +10339,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="2616"/>
+    <x v="431"/>
     <n v="3"/>
     <n v="125"/>
     <n v="327000"/>
@@ -9746,7 +10354,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="2836"/>
+    <x v="432"/>
     <n v="5"/>
     <n v="350"/>
     <n v="992600"/>
@@ -9761,7 +10369,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="4023"/>
+    <x v="433"/>
     <n v="5"/>
     <n v="125"/>
     <n v="502875"/>
@@ -9776,7 +10384,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="3994"/>
+    <x v="434"/>
     <n v="5"/>
     <n v="15"/>
     <n v="59910"/>
@@ -9791,7 +10399,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="2928"/>
+    <x v="435"/>
     <n v="10"/>
     <n v="20"/>
     <n v="58560"/>
@@ -9806,7 +10414,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2912"/>
+    <x v="436"/>
     <n v="10"/>
     <n v="300"/>
     <n v="873600"/>
@@ -9821,7 +10429,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3671"/>
+    <x v="437"/>
     <n v="10"/>
     <n v="15"/>
     <n v="55065"/>
@@ -9836,7 +10444,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2778"/>
+    <x v="438"/>
     <n v="10"/>
     <n v="20"/>
     <n v="55560"/>
@@ -9851,7 +10459,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="405"/>
+    <x v="439"/>
     <n v="120"/>
     <n v="15"/>
     <n v="6075"/>
@@ -9866,7 +10474,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="2013"/>
+    <x v="440"/>
     <n v="120"/>
     <n v="15"/>
     <n v="30195"/>
@@ -9881,7 +10489,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="2634"/>
+    <x v="441"/>
     <n v="120"/>
     <n v="15"/>
     <n v="39510"/>
@@ -9896,7 +10504,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="4166"/>
+    <x v="442"/>
     <n v="120"/>
     <n v="350"/>
     <n v="1458100"/>
@@ -9911,7 +10519,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="355"/>
+    <x v="443"/>
     <n v="120"/>
     <n v="125"/>
     <n v="44375"/>
@@ -9926,7 +10534,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="2382"/>
+    <x v="444"/>
     <n v="120"/>
     <n v="300"/>
     <n v="714600"/>
@@ -9941,7 +10549,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="4170"/>
+    <x v="445"/>
     <n v="120"/>
     <n v="20"/>
     <n v="83400"/>
@@ -9956,7 +10564,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="892"/>
+    <x v="446"/>
     <n v="120"/>
     <n v="7"/>
     <n v="6244"/>
@@ -9971,7 +10579,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="2200"/>
+    <x v="447"/>
     <n v="120"/>
     <n v="125"/>
     <n v="275000"/>
@@ -9986,7 +10594,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="3389"/>
+    <x v="448"/>
     <n v="120"/>
     <n v="300"/>
     <n v="1016700"/>
@@ -10001,7 +10609,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="2990"/>
+    <x v="215"/>
     <n v="250"/>
     <n v="125"/>
     <n v="373750"/>
@@ -10016,7 +10624,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="4013"/>
+    <x v="449"/>
     <n v="250"/>
     <n v="15"/>
     <n v="60195"/>
@@ -10031,7 +10639,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="739"/>
+    <x v="450"/>
     <n v="250"/>
     <n v="350"/>
     <n v="258650"/>
@@ -10046,7 +10654,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="1989"/>
+    <x v="451"/>
     <n v="250"/>
     <n v="300"/>
     <n v="596700"/>
@@ -10061,7 +10669,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="2991"/>
+    <x v="452"/>
     <n v="250"/>
     <n v="300"/>
     <n v="897300"/>
@@ -10076,7 +10684,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="4237"/>
+    <x v="453"/>
     <n v="250"/>
     <n v="15"/>
     <n v="63555"/>
@@ -10091,7 +10699,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="1442"/>
+    <x v="454"/>
     <n v="250"/>
     <n v="125"/>
     <n v="180250"/>
@@ -10106,7 +10714,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="2712"/>
+    <x v="455"/>
     <n v="250"/>
     <n v="350"/>
     <n v="949200"/>
@@ -10121,7 +10729,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="1508"/>
+    <x v="456"/>
     <n v="260"/>
     <n v="125"/>
     <n v="188500"/>
@@ -10136,7 +10744,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="4245"/>
+    <x v="457"/>
     <n v="260"/>
     <n v="350"/>
     <n v="1485750"/>
@@ -10151,7 +10759,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="2630"/>
+    <x v="458"/>
     <n v="260"/>
     <n v="300"/>
     <n v="789000"/>
@@ -10166,7 +10774,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="1182"/>
+    <x v="459"/>
     <n v="260"/>
     <n v="12"/>
     <n v="14184"/>
@@ -10181,7 +10789,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="1221"/>
+    <x v="255"/>
     <n v="260"/>
     <n v="20"/>
     <n v="24420"/>
@@ -10196,7 +10804,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="963"/>
+    <x v="460"/>
     <n v="260"/>
     <n v="12"/>
     <n v="11556"/>
@@ -10211,7 +10819,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="3243"/>
+    <x v="461"/>
     <n v="260"/>
     <n v="350"/>
     <n v="1135050"/>
@@ -10226,7 +10834,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1120"/>
+    <x v="462"/>
     <n v="260"/>
     <n v="15"/>
     <n v="16800"/>
@@ -10241,7 +10849,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1174"/>
+    <x v="463"/>
     <n v="260"/>
     <n v="300"/>
     <n v="352200"/>
@@ -10256,7 +10864,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="2541"/>
+    <x v="464"/>
     <n v="3"/>
     <n v="12"/>
     <n v="30492"/>
@@ -10271,7 +10879,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3246"/>
+    <x v="465"/>
     <n v="10"/>
     <n v="7"/>
     <n v="22722"/>
@@ -10286,7 +10894,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1531"/>
+    <x v="466"/>
     <n v="10"/>
     <n v="12"/>
     <n v="18372"/>
@@ -10301,7 +10909,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="2526"/>
+    <x v="467"/>
     <n v="120"/>
     <n v="15"/>
     <n v="37890"/>
@@ -10316,7 +10924,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="1136"/>
+    <x v="468"/>
     <n v="120"/>
     <n v="12"/>
     <n v="13632"/>
@@ -10331,7 +10939,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="1983"/>
+    <x v="469"/>
     <n v="250"/>
     <n v="7"/>
     <n v="13881"/>
@@ -10346,7 +10954,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="3259"/>
+    <x v="470"/>
     <n v="250"/>
     <n v="12"/>
     <n v="39108"/>
@@ -10361,7 +10969,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="3267"/>
+    <x v="471"/>
     <n v="260"/>
     <n v="15"/>
     <n v="49005"/>
@@ -10376,7 +10984,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="2454"/>
+    <x v="472"/>
     <n v="260"/>
     <n v="12"/>
     <n v="29448"/>
@@ -10391,7 +10999,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="2643"/>
+    <x v="473"/>
     <n v="3"/>
     <n v="12"/>
     <n v="31716"/>
@@ -10406,7 +11014,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="383"/>
+    <x v="305"/>
     <n v="3"/>
     <n v="350"/>
     <n v="134050"/>
@@ -10421,7 +11029,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="2801"/>
+    <x v="474"/>
     <n v="3"/>
     <n v="300"/>
     <n v="840300"/>
@@ -10436,7 +11044,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="1667"/>
+    <x v="475"/>
     <n v="3"/>
     <n v="125"/>
     <n v="208375"/>
@@ -10451,7 +11059,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="3539"/>
+    <x v="476"/>
     <n v="3"/>
     <n v="15"/>
     <n v="53085"/>
@@ -10466,7 +11074,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="4226"/>
+    <x v="477"/>
     <n v="3"/>
     <n v="7"/>
     <n v="29582"/>
@@ -10481,7 +11089,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="2220"/>
+    <x v="478"/>
     <n v="5"/>
     <n v="350"/>
     <n v="777000"/>
@@ -10496,7 +11104,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="776"/>
+    <x v="479"/>
     <n v="5"/>
     <n v="20"/>
     <n v="15520"/>
@@ -10511,7 +11119,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="553"/>
+    <x v="480"/>
     <n v="5"/>
     <n v="15"/>
     <n v="8295"/>
@@ -10526,7 +11134,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2107"/>
+    <x v="481"/>
     <n v="10"/>
     <n v="300"/>
     <n v="632100"/>
@@ -10541,7 +11149,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2468"/>
+    <x v="482"/>
     <n v="10"/>
     <n v="20"/>
     <n v="49360"/>
@@ -10556,7 +11164,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="1905"/>
+    <x v="483"/>
     <n v="10"/>
     <n v="350"/>
     <n v="666750"/>
@@ -10571,7 +11179,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3658"/>
+    <x v="393"/>
     <n v="10"/>
     <n v="12"/>
     <n v="43896"/>
@@ -10586,7 +11194,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="4301"/>
+    <x v="484"/>
     <n v="10"/>
     <n v="12"/>
     <n v="51612"/>
@@ -10601,7 +11209,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2446"/>
+    <x v="485"/>
     <n v="10"/>
     <n v="20"/>
     <n v="48920"/>
@@ -10616,7 +11224,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="4209"/>
+    <x v="486"/>
     <n v="10"/>
     <n v="15"/>
     <n v="63135"/>
@@ -10631,7 +11239,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3353"/>
+    <x v="487"/>
     <n v="10"/>
     <n v="125"/>
     <n v="419125"/>
@@ -10646,7 +11254,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="1401"/>
+    <x v="143"/>
     <n v="10"/>
     <n v="20"/>
     <n v="28020"/>
@@ -10661,7 +11269,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="1865"/>
+    <x v="488"/>
     <n v="10"/>
     <n v="300"/>
     <n v="559500"/>
@@ -10676,7 +11284,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="463"/>
+    <x v="489"/>
     <n v="120"/>
     <n v="20"/>
     <n v="9260"/>
@@ -10691,7 +11299,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="4177"/>
+    <x v="490"/>
     <n v="120"/>
     <n v="15"/>
     <n v="62655"/>
@@ -10706,7 +11314,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="2523"/>
+    <x v="491"/>
     <n v="120"/>
     <n v="350"/>
     <n v="883050"/>
@@ -10721,7 +11329,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="1930"/>
+    <x v="492"/>
     <n v="120"/>
     <n v="7"/>
     <n v="13510"/>
@@ -10736,7 +11344,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="1301"/>
+    <x v="493"/>
     <n v="250"/>
     <n v="12"/>
     <n v="15612"/>
@@ -10751,7 +11359,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="4125"/>
+    <x v="494"/>
     <n v="250"/>
     <n v="125"/>
     <n v="515625"/>
@@ -10766,7 +11374,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="607"/>
+    <x v="495"/>
     <n v="250"/>
     <n v="20"/>
     <n v="12140"/>
@@ -10781,7 +11389,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="478"/>
+    <x v="496"/>
     <n v="260"/>
     <n v="125"/>
     <n v="59750"/>
@@ -10796,7 +11404,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="4489"/>
+    <x v="175"/>
     <n v="260"/>
     <n v="20"/>
     <n v="89780"/>
@@ -10811,7 +11419,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1504"/>
+    <x v="497"/>
     <n v="260"/>
     <n v="125"/>
     <n v="188000"/>
@@ -10826,7 +11434,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="3763"/>
+    <x v="498"/>
     <n v="260"/>
     <n v="125"/>
     <n v="470375"/>
@@ -10841,7 +11449,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="2412"/>
+    <x v="499"/>
     <n v="260"/>
     <n v="350"/>
     <n v="844200"/>
@@ -10856,7 +11464,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="2342"/>
+    <x v="500"/>
     <n v="260"/>
     <n v="15"/>
     <n v="35130"/>
@@ -10871,7 +11479,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="4451"/>
+    <x v="501"/>
     <n v="10"/>
     <n v="7"/>
     <n v="31157"/>
@@ -10886,7 +11494,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="3796"/>
+    <x v="502"/>
     <n v="3"/>
     <n v="350"/>
     <n v="1328600"/>
@@ -10901,7 +11509,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="2286"/>
+    <x v="503"/>
     <n v="3"/>
     <n v="125"/>
     <n v="285750"/>
@@ -10916,7 +11524,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="3614"/>
+    <x v="504"/>
     <n v="3"/>
     <n v="125"/>
     <n v="451750"/>
@@ -10931,7 +11539,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1716"/>
+    <x v="505"/>
     <n v="3"/>
     <n v="15"/>
     <n v="25740"/>
@@ -10946,7 +11554,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="1301"/>
+    <x v="493"/>
     <n v="5"/>
     <n v="15"/>
     <n v="19515"/>
@@ -10961,7 +11569,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="4175"/>
+    <x v="506"/>
     <n v="5"/>
     <n v="300"/>
     <n v="1252500"/>
@@ -10976,7 +11584,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="975"/>
+    <x v="507"/>
     <n v="5"/>
     <n v="7"/>
     <n v="6825"/>
@@ -10991,7 +11599,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="1154"/>
+    <x v="95"/>
     <n v="5"/>
     <n v="7"/>
     <n v="8078"/>
@@ -11006,7 +11614,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="1873"/>
+    <x v="508"/>
     <n v="5"/>
     <n v="20"/>
     <n v="37460"/>
@@ -11021,7 +11629,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="3766"/>
+    <x v="340"/>
     <n v="5"/>
     <n v="300"/>
     <n v="1129800"/>
@@ -11036,7 +11644,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3558"/>
+    <x v="509"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1067400"/>
@@ -11051,7 +11659,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="3156"/>
+    <x v="510"/>
     <n v="10"/>
     <n v="350"/>
     <n v="1104600"/>
@@ -11066,7 +11674,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2994"/>
+    <x v="511"/>
     <n v="10"/>
     <n v="125"/>
     <n v="374250"/>
@@ -11081,7 +11689,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2087"/>
+    <x v="18"/>
     <n v="10"/>
     <n v="20"/>
     <n v="41740"/>
@@ -11096,7 +11704,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="1056"/>
+    <x v="512"/>
     <n v="10"/>
     <n v="20"/>
     <n v="21120"/>
@@ -11111,7 +11719,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1353"/>
+    <x v="513"/>
     <n v="10"/>
     <n v="350"/>
     <n v="473550"/>
@@ -11126,7 +11734,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="416"/>
+    <x v="514"/>
     <n v="10"/>
     <n v="300"/>
     <n v="124800"/>
@@ -11141,7 +11749,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="3880"/>
+    <x v="42"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1164000"/>
@@ -11156,7 +11764,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="809"/>
+    <x v="515"/>
     <n v="10"/>
     <n v="350"/>
     <n v="283150"/>
@@ -11171,7 +11779,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="1892"/>
+    <x v="516"/>
     <n v="10"/>
     <n v="15"/>
     <n v="28380"/>
@@ -11186,7 +11794,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2072"/>
+    <x v="517"/>
     <n v="10"/>
     <n v="20"/>
     <n v="41440"/>
@@ -11201,7 +11809,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="3052"/>
+    <x v="518"/>
     <n v="120"/>
     <n v="350"/>
     <n v="1068200"/>
@@ -11216,7 +11824,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="3121"/>
+    <x v="519"/>
     <n v="120"/>
     <n v="350"/>
     <n v="1092350"/>
@@ -11231,7 +11839,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="2059"/>
+    <x v="520"/>
     <n v="120"/>
     <n v="20"/>
     <n v="41180"/>
@@ -11246,7 +11854,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="4254"/>
+    <x v="521"/>
     <n v="250"/>
     <n v="12"/>
     <n v="51048"/>
@@ -11261,7 +11869,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="1293"/>
+    <x v="522"/>
     <n v="250"/>
     <n v="15"/>
     <n v="19395"/>
@@ -11276,7 +11884,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="1293"/>
+    <x v="522"/>
     <n v="250"/>
     <n v="350"/>
     <n v="452550"/>
@@ -11291,7 +11899,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="230"/>
+    <x v="523"/>
     <n v="250"/>
     <n v="350"/>
     <n v="80500"/>
@@ -11306,7 +11914,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="1723"/>
+    <x v="72"/>
     <n v="250"/>
     <n v="125"/>
     <n v="215375"/>
@@ -11321,7 +11929,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="240"/>
+    <x v="524"/>
     <n v="250"/>
     <n v="20"/>
     <n v="4800"/>
@@ -11336,7 +11944,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="2571"/>
+    <x v="525"/>
     <n v="260"/>
     <n v="350"/>
     <n v="899850"/>
@@ -11351,7 +11959,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1661"/>
+    <x v="526"/>
     <n v="260"/>
     <n v="7"/>
     <n v="11627"/>
@@ -11366,7 +11974,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="4474"/>
+    <x v="527"/>
     <n v="260"/>
     <n v="7"/>
     <n v="31318"/>
@@ -11381,7 +11989,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="833"/>
+    <x v="528"/>
     <n v="260"/>
     <n v="15"/>
     <n v="12495"/>
@@ -11396,7 +12004,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="674"/>
+    <x v="529"/>
     <n v="3"/>
     <n v="20"/>
     <n v="13480"/>
@@ -11411,7 +12019,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="778"/>
+    <x v="530"/>
     <n v="5"/>
     <n v="12"/>
     <n v="9336"/>
@@ -11426,7 +12034,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="1457"/>
+    <x v="531"/>
     <n v="10"/>
     <n v="20"/>
     <n v="29140"/>
@@ -11441,7 +12049,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="3158"/>
+    <x v="532"/>
     <n v="250"/>
     <n v="7"/>
     <n v="22106"/>
@@ -11456,7 +12064,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="4095"/>
+    <x v="533"/>
     <n v="250"/>
     <n v="20"/>
     <n v="81900"/>
@@ -11471,7 +12079,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="3170"/>
+    <x v="534"/>
     <n v="260"/>
     <n v="12"/>
     <n v="38040"/>
@@ -11486,7 +12094,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="493"/>
+    <x v="535"/>
     <n v="3"/>
     <n v="15"/>
     <n v="7395"/>
@@ -11501,7 +12109,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="3286"/>
+    <x v="536"/>
     <n v="250"/>
     <n v="15"/>
     <n v="49290"/>
@@ -11516,7 +12124,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="3563"/>
+    <x v="537"/>
     <n v="3"/>
     <n v="350"/>
     <n v="1247050"/>
@@ -11531,7 +12139,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="4109"/>
+    <x v="538"/>
     <n v="3"/>
     <n v="350"/>
     <n v="1438150"/>
@@ -11546,7 +12154,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="3653"/>
+    <x v="539"/>
     <n v="3"/>
     <n v="20"/>
     <n v="73060"/>
@@ -11561,7 +12169,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="2203"/>
+    <x v="540"/>
     <n v="5"/>
     <n v="350"/>
     <n v="771050"/>
@@ -11576,7 +12184,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="2924"/>
+    <x v="541"/>
     <n v="5"/>
     <n v="7"/>
     <n v="20468"/>
@@ -11591,7 +12199,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="2650"/>
+    <x v="403"/>
     <n v="5"/>
     <n v="12"/>
     <n v="31800"/>
@@ -11606,7 +12214,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="1194"/>
+    <x v="542"/>
     <n v="5"/>
     <n v="20"/>
     <n v="23880"/>
@@ -11621,7 +12229,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="3366"/>
+    <x v="543"/>
     <n v="5"/>
     <n v="20"/>
     <n v="67320"/>
@@ -11636,7 +12244,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1325"/>
+    <x v="544"/>
     <n v="10"/>
     <n v="7"/>
     <n v="9275"/>
@@ -11651,7 +12259,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="4243"/>
+    <x v="545"/>
     <n v="10"/>
     <n v="300"/>
     <n v="1272900"/>
@@ -11666,7 +12274,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="2887"/>
+    <x v="546"/>
     <n v="10"/>
     <n v="20"/>
     <n v="57740"/>
@@ -11681,7 +12289,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="3839"/>
+    <x v="547"/>
     <n v="10"/>
     <n v="20"/>
     <n v="76780"/>
@@ -11696,7 +12304,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="1863"/>
+    <x v="548"/>
     <n v="10"/>
     <n v="350"/>
     <n v="652050"/>
@@ -11711,7 +12319,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2858"/>
+    <x v="549"/>
     <n v="10"/>
     <n v="125"/>
     <n v="357250"/>
@@ -11726,7 +12334,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2868"/>
+    <x v="550"/>
     <n v="10"/>
     <n v="12"/>
     <n v="34416"/>
@@ -11741,7 +12349,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="3805"/>
+    <x v="398"/>
     <n v="10"/>
     <n v="7"/>
     <n v="26635"/>
@@ -11756,7 +12364,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3914"/>
+    <x v="551"/>
     <n v="10"/>
     <n v="15"/>
     <n v="58710"/>
@@ -11771,7 +12379,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="524"/>
+    <x v="552"/>
     <n v="10"/>
     <n v="20"/>
     <n v="10480"/>
@@ -11786,7 +12394,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="3095"/>
+    <x v="553"/>
     <n v="10"/>
     <n v="350"/>
     <n v="1083250"/>
@@ -11801,7 +12409,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2410"/>
+    <x v="554"/>
     <n v="10"/>
     <n v="12"/>
     <n v="28920"/>
@@ -11816,7 +12424,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="4263"/>
+    <x v="555"/>
     <n v="120"/>
     <n v="15"/>
     <n v="63945"/>
@@ -11831,7 +12439,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="2239"/>
+    <x v="556"/>
     <n v="120"/>
     <n v="350"/>
     <n v="783650"/>
@@ -11846,7 +12454,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="569"/>
+    <x v="557"/>
     <n v="120"/>
     <n v="7"/>
     <n v="3983"/>
@@ -11861,7 +12469,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="3889"/>
+    <x v="558"/>
     <n v="120"/>
     <n v="12"/>
     <n v="46668"/>
@@ -11876,7 +12484,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="1378"/>
+    <x v="559"/>
     <n v="120"/>
     <n v="15"/>
     <n v="20670"/>
@@ -11891,7 +12499,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="2253"/>
+    <x v="560"/>
     <n v="120"/>
     <n v="12"/>
     <n v="27036"/>
@@ -11906,7 +12514,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="3202"/>
+    <x v="561"/>
     <n v="120"/>
     <n v="300"/>
     <n v="960600"/>
@@ -11921,7 +12529,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="3835"/>
+    <x v="163"/>
     <n v="120"/>
     <n v="12"/>
     <n v="46020"/>
@@ -11936,7 +12544,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="2487"/>
+    <x v="562"/>
     <n v="250"/>
     <n v="125"/>
     <n v="310875"/>
@@ -11951,7 +12559,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="4428"/>
+    <x v="563"/>
     <n v="250"/>
     <n v="15"/>
     <n v="66420"/>
@@ -11966,7 +12574,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="1200"/>
+    <x v="564"/>
     <n v="260"/>
     <n v="125"/>
     <n v="150000"/>
@@ -11981,7 +12589,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="2953"/>
+    <x v="565"/>
     <n v="260"/>
     <n v="7"/>
     <n v="20671"/>
@@ -11996,7 +12604,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="1453"/>
+    <x v="566"/>
     <n v="260"/>
     <n v="12"/>
     <n v="17436"/>
@@ -12011,7 +12619,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="865"/>
+    <x v="567"/>
     <n v="260"/>
     <n v="12"/>
     <n v="10380"/>
@@ -12026,7 +12634,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="1072"/>
+    <x v="216"/>
     <n v="3"/>
     <n v="20"/>
     <n v="21440"/>
@@ -12041,7 +12649,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="1737"/>
+    <x v="568"/>
     <n v="3"/>
     <n v="20"/>
     <n v="34740"/>
@@ -12056,7 +12664,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="1535"/>
+    <x v="569"/>
     <n v="3"/>
     <n v="7"/>
     <n v="10745"/>
@@ -12071,7 +12679,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="2532"/>
+    <x v="570"/>
     <n v="3"/>
     <n v="7"/>
     <n v="17724"/>
@@ -12086,7 +12694,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="1765"/>
+    <x v="189"/>
     <n v="5"/>
     <n v="7"/>
     <n v="12355"/>
@@ -12101,7 +12709,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="1567"/>
+    <x v="571"/>
     <n v="5"/>
     <n v="7"/>
     <n v="10969"/>
@@ -12116,7 +12724,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2640"/>
+    <x v="572"/>
     <n v="10"/>
     <n v="15"/>
     <n v="39600"/>
@@ -12131,7 +12739,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3079"/>
+    <x v="573"/>
     <n v="10"/>
     <n v="20"/>
     <n v="61580"/>
@@ -12146,7 +12754,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="4130"/>
+    <x v="574"/>
     <n v="10"/>
     <n v="15"/>
     <n v="61950"/>
@@ -12161,7 +12769,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="2938"/>
+    <x v="192"/>
     <n v="10"/>
     <n v="12"/>
     <n v="35256"/>
@@ -12176,7 +12784,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="3080"/>
+    <x v="575"/>
     <n v="250"/>
     <n v="7"/>
     <n v="21560"/>
@@ -12191,7 +12799,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1530"/>
+    <x v="576"/>
     <n v="260"/>
     <n v="12"/>
     <n v="18360"/>
@@ -12206,7 +12814,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="3537"/>
+    <x v="430"/>
     <n v="260"/>
     <n v="12"/>
     <n v="42444"/>
@@ -12221,7 +12829,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="2021"/>
+    <x v="577"/>
     <n v="3"/>
     <n v="300"/>
     <n v="606300"/>
@@ -12236,7 +12844,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="1804"/>
+    <x v="578"/>
     <n v="3"/>
     <n v="125"/>
     <n v="225500"/>
@@ -12251,7 +12859,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1014"/>
+    <x v="421"/>
     <n v="3"/>
     <n v="300"/>
     <n v="304200"/>
@@ -12266,7 +12874,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="2913"/>
+    <x v="579"/>
     <n v="3"/>
     <n v="300"/>
     <n v="873900"/>
@@ -12281,7 +12889,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="763"/>
+    <x v="580"/>
     <n v="3"/>
     <n v="15"/>
     <n v="11445"/>
@@ -12296,7 +12904,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1425"/>
+    <x v="581"/>
     <n v="3"/>
     <n v="15"/>
     <n v="21375"/>
@@ -12311,7 +12919,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="4357"/>
+    <x v="582"/>
     <n v="3"/>
     <n v="125"/>
     <n v="544625"/>
@@ -12326,7 +12934,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="2138"/>
+    <x v="583"/>
     <n v="5"/>
     <n v="350"/>
     <n v="748300"/>
@@ -12341,7 +12949,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="3825"/>
+    <x v="584"/>
     <n v="5"/>
     <n v="350"/>
     <n v="1338750"/>
@@ -12356,7 +12964,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="3393"/>
+    <x v="585"/>
     <n v="5"/>
     <n v="350"/>
     <n v="1187550"/>
@@ -12371,7 +12979,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="2215"/>
+    <x v="586"/>
     <n v="5"/>
     <n v="7"/>
     <n v="15505"/>
@@ -12386,7 +12994,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="2278"/>
+    <x v="153"/>
     <n v="5"/>
     <n v="7"/>
     <n v="15946"/>
@@ -12401,7 +13009,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="403"/>
+    <x v="587"/>
     <n v="5"/>
     <n v="15"/>
     <n v="6045"/>
@@ -12416,7 +13024,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="289"/>
+    <x v="588"/>
     <n v="10"/>
     <n v="20"/>
     <n v="5780"/>
@@ -12431,7 +13039,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="749"/>
+    <x v="315"/>
     <n v="10"/>
     <n v="15"/>
     <n v="11235"/>
@@ -12446,7 +13054,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="372"/>
+    <x v="589"/>
     <n v="10"/>
     <n v="15"/>
     <n v="5580"/>
@@ -12461,7 +13069,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3781"/>
+    <x v="590"/>
     <n v="10"/>
     <n v="12"/>
     <n v="45372"/>
@@ -12476,7 +13084,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1785"/>
+    <x v="591"/>
     <n v="10"/>
     <n v="7"/>
     <n v="12495"/>
@@ -12491,7 +13099,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="4029"/>
+    <x v="592"/>
     <n v="10"/>
     <n v="350"/>
     <n v="1410150"/>
@@ -12506,7 +13114,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2813"/>
+    <x v="593"/>
     <n v="10"/>
     <n v="12"/>
     <n v="33756"/>
@@ -12521,7 +13129,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="2150"/>
+    <x v="594"/>
     <n v="10"/>
     <n v="350"/>
     <n v="752500"/>
@@ -12536,7 +13144,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="2093"/>
+    <x v="595"/>
     <n v="10"/>
     <n v="350"/>
     <n v="732550"/>
@@ -12551,7 +13159,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="4391"/>
+    <x v="596"/>
     <n v="120"/>
     <n v="125"/>
     <n v="548875"/>
@@ -12566,7 +13174,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="2695"/>
+    <x v="597"/>
     <n v="120"/>
     <n v="20"/>
     <n v="53900"/>
@@ -12581,7 +13189,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="1337"/>
+    <x v="209"/>
     <n v="120"/>
     <n v="300"/>
     <n v="401100"/>
@@ -12596,7 +13204,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="2621"/>
+    <x v="407"/>
     <n v="120"/>
     <n v="300"/>
     <n v="786300"/>
@@ -12611,7 +13219,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="3735"/>
+    <x v="598"/>
     <n v="120"/>
     <n v="300"/>
     <n v="1120500"/>
@@ -12626,7 +13234,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="4320"/>
+    <x v="599"/>
     <n v="250"/>
     <n v="7"/>
     <n v="30240"/>
@@ -12641,7 +13249,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="2828"/>
+    <x v="600"/>
     <n v="250"/>
     <n v="300"/>
     <n v="848400"/>
@@ -12656,7 +13264,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="2586"/>
+    <x v="185"/>
     <n v="250"/>
     <n v="300"/>
     <n v="775800"/>
@@ -12671,7 +13279,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="1248"/>
+    <x v="601"/>
     <n v="250"/>
     <n v="300"/>
     <n v="374400"/>
@@ -12686,7 +13294,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="4035"/>
+    <x v="602"/>
     <n v="250"/>
     <n v="300"/>
     <n v="1210500"/>
@@ -12701,7 +13309,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="359"/>
+    <x v="603"/>
     <n v="250"/>
     <n v="350"/>
     <n v="125650"/>
@@ -12716,7 +13324,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="3926"/>
+    <x v="604"/>
     <n v="260"/>
     <n v="300"/>
     <n v="1177800"/>
@@ -12731,7 +13339,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="4247"/>
+    <x v="605"/>
     <n v="260"/>
     <n v="125"/>
     <n v="530875"/>
@@ -12746,7 +13354,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="2695"/>
+    <x v="597"/>
     <n v="260"/>
     <n v="12"/>
     <n v="32340"/>
@@ -12761,7 +13369,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="1104"/>
+    <x v="606"/>
     <n v="260"/>
     <n v="15"/>
     <n v="16560"/>
@@ -12776,7 +13384,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="1449"/>
+    <x v="607"/>
     <n v="260"/>
     <n v="12"/>
     <n v="17388"/>
@@ -12791,7 +13399,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1131"/>
+    <x v="608"/>
     <n v="260"/>
     <n v="7"/>
     <n v="7917"/>
@@ -12806,7 +13414,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="1468"/>
+    <x v="609"/>
     <n v="260"/>
     <n v="7"/>
     <n v="10276"/>
@@ -12821,7 +13429,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="1272"/>
+    <x v="610"/>
     <n v="260"/>
     <n v="15"/>
     <n v="19080"/>
@@ -12836,7 +13444,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="1403"/>
+    <x v="611"/>
     <n v="3"/>
     <n v="125"/>
     <n v="175375"/>
@@ -12851,7 +13459,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="2161"/>
+    <x v="612"/>
     <n v="3"/>
     <n v="125"/>
     <n v="270125"/>
@@ -12866,7 +13474,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="1937"/>
+    <x v="613"/>
     <n v="3"/>
     <n v="125"/>
     <n v="242125"/>
@@ -12881,7 +13489,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="2879"/>
+    <x v="418"/>
     <n v="5"/>
     <n v="300"/>
     <n v="863700"/>
@@ -12896,7 +13504,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="1330"/>
+    <x v="614"/>
     <n v="10"/>
     <n v="20"/>
     <n v="26600"/>
@@ -12911,7 +13519,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="2426"/>
+    <x v="615"/>
     <n v="10"/>
     <n v="15"/>
     <n v="36390"/>
@@ -12926,7 +13534,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2033"/>
+    <x v="616"/>
     <n v="10"/>
     <n v="7"/>
     <n v="14231"/>
@@ -12941,7 +13549,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="2029"/>
+    <x v="617"/>
     <n v="10"/>
     <n v="350"/>
     <n v="710150"/>
@@ -12956,7 +13564,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="1049"/>
+    <x v="618"/>
     <n v="10"/>
     <n v="15"/>
     <n v="15735"/>
@@ -12971,7 +13579,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1062"/>
+    <x v="307"/>
     <n v="10"/>
     <n v="20"/>
     <n v="21240"/>
@@ -12986,7 +13594,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="2509"/>
+    <x v="619"/>
     <n v="10"/>
     <n v="125"/>
     <n v="313625"/>
@@ -13001,7 +13609,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="1743"/>
+    <x v="620"/>
     <n v="10"/>
     <n v="15"/>
     <n v="26145"/>
@@ -13016,7 +13624,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3418"/>
+    <x v="621"/>
     <n v="10"/>
     <n v="350"/>
     <n v="1196300"/>
@@ -13031,7 +13639,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="1751"/>
+    <x v="622"/>
     <n v="10"/>
     <n v="350"/>
     <n v="612850"/>
@@ -13046,7 +13654,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="3228"/>
+    <x v="623"/>
     <n v="10"/>
     <n v="12"/>
     <n v="38736"/>
@@ -13061,7 +13669,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1105"/>
+    <x v="146"/>
     <n v="10"/>
     <n v="20"/>
     <n v="22100"/>
@@ -13076,7 +13684,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="2778"/>
+    <x v="438"/>
     <n v="120"/>
     <n v="12"/>
     <n v="33336"/>
@@ -13091,7 +13699,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="1173"/>
+    <x v="624"/>
     <n v="120"/>
     <n v="15"/>
     <n v="17595"/>
@@ -13106,7 +13714,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="3160"/>
+    <x v="625"/>
     <n v="120"/>
     <n v="125"/>
     <n v="395000"/>
@@ -13121,7 +13729,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="4322"/>
+    <x v="626"/>
     <n v="120"/>
     <n v="300"/>
     <n v="1296600"/>
@@ -13136,7 +13744,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="1901"/>
+    <x v="627"/>
     <n v="120"/>
     <n v="125"/>
     <n v="237625"/>
@@ -13151,7 +13759,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="2980"/>
+    <x v="628"/>
     <n v="120"/>
     <n v="12"/>
     <n v="35760"/>
@@ -13166,7 +13774,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="4068"/>
+    <x v="629"/>
     <n v="250"/>
     <n v="20"/>
     <n v="81360"/>
@@ -13181,7 +13789,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="2105"/>
+    <x v="630"/>
     <n v="250"/>
     <n v="15"/>
     <n v="31575"/>
@@ -13196,7 +13804,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="1647"/>
+    <x v="631"/>
     <n v="250"/>
     <n v="20"/>
     <n v="32940"/>
@@ -13211,7 +13819,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="235"/>
+    <x v="632"/>
     <n v="250"/>
     <n v="15"/>
     <n v="3525"/>
@@ -13226,7 +13834,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="3617"/>
+    <x v="29"/>
     <n v="250"/>
     <n v="125"/>
     <n v="452125"/>
@@ -13241,7 +13849,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="2106"/>
+    <x v="112"/>
     <n v="250"/>
     <n v="125"/>
     <n v="263250"/>
@@ -13256,7 +13864,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="2351"/>
+    <x v="140"/>
     <n v="250"/>
     <n v="20"/>
     <n v="47020"/>
@@ -13271,7 +13879,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1897"/>
+    <x v="633"/>
     <n v="260"/>
     <n v="300"/>
     <n v="569100"/>
@@ -13286,7 +13894,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="647"/>
+    <x v="372"/>
     <n v="260"/>
     <n v="300"/>
     <n v="194100"/>
@@ -13301,7 +13909,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="3621"/>
+    <x v="634"/>
     <n v="5"/>
     <n v="7"/>
     <n v="25347"/>
@@ -13316,7 +13924,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3221"/>
+    <x v="229"/>
     <n v="10"/>
     <n v="7"/>
     <n v="22547"/>
@@ -13331,7 +13939,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="493"/>
+    <x v="535"/>
     <n v="250"/>
     <n v="12"/>
     <n v="5916"/>
@@ -13347,8 +13955,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{754727B3-0E0A-498A-B5DD-8D5AF008F3E9}" name="PVT-GrossSalesByYear" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D75" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{754727B3-0E0A-498A-B5DD-8D5AF008F3E9}" name="PVT-GrossSalesByYear" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G76" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="6">
@@ -13371,7 +13979,646 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="636">
+        <item x="256"/>
+        <item x="98"/>
+        <item x="523"/>
+        <item x="632"/>
+        <item x="524"/>
+        <item x="244"/>
+        <item x="324"/>
+        <item x="339"/>
+        <item x="249"/>
+        <item x="588"/>
+        <item x="174"/>
+        <item x="231"/>
+        <item x="129"/>
+        <item x="292"/>
+        <item x="301"/>
+        <item x="201"/>
+        <item x="443"/>
+        <item x="603"/>
+        <item x="589"/>
+        <item x="117"/>
+        <item x="305"/>
+        <item x="168"/>
+        <item x="377"/>
+        <item x="587"/>
+        <item x="439"/>
+        <item x="514"/>
+        <item x="338"/>
+        <item x="73"/>
+        <item x="297"/>
+        <item x="56"/>
+        <item x="489"/>
+        <item x="291"/>
+        <item x="218"/>
+        <item x="212"/>
+        <item x="496"/>
+        <item x="223"/>
+        <item x="179"/>
+        <item x="535"/>
+        <item x="40"/>
+        <item x="328"/>
+        <item x="552"/>
+        <item x="197"/>
+        <item x="480"/>
+        <item x="101"/>
+        <item x="557"/>
+        <item x="269"/>
+        <item x="120"/>
+        <item x="404"/>
+        <item x="283"/>
+        <item x="210"/>
+        <item x="495"/>
+        <item x="46"/>
+        <item x="267"/>
+        <item x="372"/>
+        <item x="529"/>
+        <item x="214"/>
+        <item x="139"/>
+        <item x="422"/>
+        <item x="3"/>
+        <item x="211"/>
+        <item x="390"/>
+        <item x="450"/>
+        <item x="262"/>
+        <item x="58"/>
+        <item x="315"/>
+        <item x="580"/>
+        <item x="160"/>
+        <item x="103"/>
+        <item x="278"/>
+        <item x="479"/>
+        <item x="530"/>
+        <item x="133"/>
+        <item x="323"/>
+        <item x="113"/>
+        <item x="281"/>
+        <item x="219"/>
+        <item x="326"/>
+        <item x="515"/>
+        <item x="528"/>
+        <item x="77"/>
+        <item x="397"/>
+        <item x="567"/>
+        <item x="165"/>
+        <item x="39"/>
+        <item x="17"/>
+        <item x="376"/>
+        <item x="446"/>
+        <item x="31"/>
+        <item x="334"/>
+        <item x="341"/>
+        <item x="426"/>
+        <item x="460"/>
+        <item x="507"/>
+        <item x="293"/>
+        <item x="21"/>
+        <item x="234"/>
+        <item x="421"/>
+        <item x="59"/>
+        <item x="217"/>
+        <item x="618"/>
+        <item x="512"/>
+        <item x="307"/>
+        <item x="216"/>
+        <item x="382"/>
+        <item x="154"/>
+        <item x="37"/>
+        <item x="606"/>
+        <item x="146"/>
+        <item x="253"/>
+        <item x="71"/>
+        <item x="462"/>
+        <item x="48"/>
+        <item x="608"/>
+        <item x="104"/>
+        <item x="468"/>
+        <item x="177"/>
+        <item x="333"/>
+        <item x="391"/>
+        <item x="95"/>
+        <item x="389"/>
+        <item x="358"/>
+        <item x="280"/>
+        <item x="164"/>
+        <item x="624"/>
+        <item x="463"/>
+        <item x="459"/>
+        <item x="336"/>
+        <item x="106"/>
+        <item x="542"/>
+        <item x="125"/>
+        <item x="564"/>
+        <item x="148"/>
+        <item x="134"/>
+        <item x="225"/>
+        <item x="415"/>
+        <item x="255"/>
+        <item x="178"/>
+        <item x="184"/>
+        <item x="313"/>
+        <item x="601"/>
+        <item x="386"/>
+        <item x="258"/>
+        <item x="87"/>
+        <item x="30"/>
+        <item x="610"/>
+        <item x="414"/>
+        <item x="522"/>
+        <item x="277"/>
+        <item x="493"/>
+        <item x="412"/>
+        <item x="325"/>
+        <item x="316"/>
+        <item x="384"/>
+        <item x="285"/>
+        <item x="544"/>
+        <item x="614"/>
+        <item x="186"/>
+        <item x="209"/>
+        <item x="243"/>
+        <item x="513"/>
+        <item x="91"/>
+        <item x="248"/>
+        <item x="0"/>
+        <item x="559"/>
+        <item x="158"/>
+        <item x="52"/>
+        <item x="138"/>
+        <item x="143"/>
+        <item x="611"/>
+        <item x="85"/>
+        <item x="399"/>
+        <item x="581"/>
+        <item x="294"/>
+        <item x="454"/>
+        <item x="607"/>
+        <item x="566"/>
+        <item x="531"/>
+        <item x="123"/>
+        <item x="97"/>
+        <item x="2"/>
+        <item x="375"/>
+        <item x="609"/>
+        <item x="295"/>
+        <item x="94"/>
+        <item x="69"/>
+        <item x="497"/>
+        <item x="343"/>
+        <item x="456"/>
+        <item x="198"/>
+        <item x="576"/>
+        <item x="466"/>
+        <item x="569"/>
+        <item x="413"/>
+        <item x="238"/>
+        <item x="571"/>
+        <item x="65"/>
+        <item x="75"/>
+        <item x="353"/>
+        <item x="122"/>
+        <item x="232"/>
+        <item x="314"/>
+        <item x="288"/>
+        <item x="631"/>
+        <item x="526"/>
+        <item x="475"/>
+        <item x="64"/>
+        <item x="345"/>
+        <item x="311"/>
+        <item x="385"/>
+        <item x="348"/>
+        <item x="363"/>
+        <item x="378"/>
+        <item x="388"/>
+        <item x="166"/>
+        <item x="419"/>
+        <item x="298"/>
+        <item x="361"/>
+        <item x="505"/>
+        <item x="72"/>
+        <item x="299"/>
+        <item x="568"/>
+        <item x="252"/>
+        <item x="620"/>
+        <item x="161"/>
+        <item x="622"/>
+        <item x="383"/>
+        <item x="173"/>
+        <item x="300"/>
+        <item x="312"/>
+        <item x="189"/>
+        <item x="200"/>
+        <item x="591"/>
+        <item x="578"/>
+        <item x="167"/>
+        <item x="93"/>
+        <item x="395"/>
+        <item x="54"/>
+        <item x="409"/>
+        <item x="548"/>
+        <item x="488"/>
+        <item x="508"/>
+        <item x="374"/>
+        <item x="276"/>
+        <item x="516"/>
+        <item x="633"/>
+        <item x="627"/>
+        <item x="371"/>
+        <item x="483"/>
+        <item x="289"/>
+        <item x="67"/>
+        <item x="492"/>
+        <item x="613"/>
+        <item x="11"/>
+        <item x="273"/>
+        <item x="360"/>
+        <item x="266"/>
+        <item x="221"/>
+        <item x="417"/>
+        <item x="469"/>
+        <item x="222"/>
+        <item x="451"/>
+        <item x="440"/>
+        <item x="50"/>
+        <item x="191"/>
+        <item x="577"/>
+        <item x="617"/>
+        <item x="616"/>
+        <item x="141"/>
+        <item x="43"/>
+        <item x="520"/>
+        <item x="517"/>
+        <item x="60"/>
+        <item x="144"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="595"/>
+        <item x="630"/>
+        <item x="112"/>
+        <item x="481"/>
+        <item x="118"/>
+        <item x="130"/>
+        <item x="25"/>
+        <item x="583"/>
+        <item x="136"/>
+        <item x="594"/>
+        <item x="239"/>
+        <item x="290"/>
+        <item x="612"/>
+        <item x="176"/>
+        <item x="90"/>
+        <item x="272"/>
+        <item x="447"/>
+        <item x="540"/>
+        <item x="275"/>
+        <item x="396"/>
+        <item x="586"/>
+        <item x="478"/>
+        <item x="400"/>
+        <item x="337"/>
+        <item x="556"/>
+        <item x="247"/>
+        <item x="560"/>
+        <item x="153"/>
+        <item x="503"/>
+        <item x="365"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="127"/>
+        <item x="364"/>
+        <item x="149"/>
+        <item x="213"/>
+        <item x="119"/>
+        <item x="162"/>
+        <item x="500"/>
+        <item x="140"/>
+        <item x="74"/>
+        <item x="416"/>
+        <item x="444"/>
+        <item x="230"/>
+        <item x="366"/>
+        <item x="554"/>
+        <item x="499"/>
+        <item x="279"/>
+        <item x="615"/>
+        <item x="196"/>
+        <item x="251"/>
+        <item x="310"/>
+        <item x="485"/>
+        <item x="472"/>
+        <item x="379"/>
+        <item x="482"/>
+        <item x="226"/>
+        <item x="319"/>
+        <item x="562"/>
+        <item x="330"/>
+        <item x="619"/>
+        <item x="370"/>
+        <item x="16"/>
+        <item x="331"/>
+        <item x="250"/>
+        <item x="491"/>
+        <item x="467"/>
+        <item x="14"/>
+        <item x="570"/>
+        <item x="51"/>
+        <item x="464"/>
+        <item x="92"/>
+        <item x="19"/>
+        <item x="427"/>
+        <item x="525"/>
+        <item x="128"/>
+        <item x="185"/>
+        <item x="121"/>
+        <item x="431"/>
+        <item x="407"/>
+        <item x="10"/>
+        <item x="458"/>
+        <item x="441"/>
+        <item x="572"/>
+        <item x="473"/>
+        <item x="380"/>
+        <item x="403"/>
+        <item x="368"/>
+        <item x="62"/>
+        <item x="100"/>
+        <item x="354"/>
+        <item x="79"/>
+        <item x="597"/>
+        <item x="406"/>
+        <item x="455"/>
+        <item x="392"/>
+        <item x="32"/>
+        <item x="68"/>
+        <item x="181"/>
+        <item x="169"/>
+        <item x="1"/>
+        <item x="204"/>
+        <item x="438"/>
+        <item x="78"/>
+        <item x="55"/>
+        <item x="474"/>
+        <item x="593"/>
+        <item x="356"/>
+        <item x="82"/>
+        <item x="15"/>
+        <item x="600"/>
+        <item x="432"/>
+        <item x="411"/>
+        <item x="20"/>
+        <item x="84"/>
+        <item x="549"/>
+        <item x="550"/>
+        <item x="429"/>
+        <item x="418"/>
+        <item x="317"/>
+        <item x="546"/>
+        <item x="436"/>
+        <item x="579"/>
+        <item x="373"/>
+        <item x="541"/>
+        <item x="227"/>
+        <item x="435"/>
+        <item x="260"/>
+        <item x="420"/>
+        <item x="192"/>
+        <item x="205"/>
+        <item x="401"/>
+        <item x="394"/>
+        <item x="565"/>
+        <item x="147"/>
+        <item x="342"/>
+        <item x="628"/>
+        <item x="215"/>
+        <item x="452"/>
+        <item x="511"/>
+        <item x="410"/>
+        <item x="350"/>
+        <item x="259"/>
+        <item x="156"/>
+        <item x="318"/>
+        <item x="346"/>
+        <item x="518"/>
+        <item x="108"/>
+        <item x="33"/>
+        <item x="359"/>
+        <item x="89"/>
+        <item x="573"/>
+        <item x="575"/>
+        <item x="261"/>
+        <item x="553"/>
+        <item x="306"/>
+        <item x="424"/>
+        <item x="519"/>
+        <item x="114"/>
+        <item x="510"/>
+        <item x="532"/>
+        <item x="625"/>
+        <item x="320"/>
+        <item x="534"/>
+        <item x="332"/>
+        <item x="265"/>
+        <item x="561"/>
+        <item x="228"/>
+        <item x="270"/>
+        <item x="229"/>
+        <item x="623"/>
+        <item x="45"/>
+        <item x="461"/>
+        <item x="465"/>
+        <item x="102"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="12"/>
+        <item x="131"/>
+        <item x="124"/>
+        <item x="536"/>
+        <item x="327"/>
+        <item x="28"/>
+        <item x="195"/>
+        <item x="257"/>
+        <item x="235"/>
+        <item x="193"/>
+        <item x="487"/>
+        <item x="543"/>
+        <item x="41"/>
+        <item x="347"/>
+        <item x="245"/>
+        <item x="254"/>
+        <item x="36"/>
+        <item x="76"/>
+        <item x="448"/>
+        <item x="585"/>
+        <item x="402"/>
+        <item x="355"/>
+        <item x="621"/>
+        <item x="22"/>
+        <item x="49"/>
+        <item x="110"/>
+        <item x="107"/>
+        <item x="268"/>
+        <item x="26"/>
+        <item x="246"/>
+        <item x="387"/>
+        <item x="137"/>
+        <item x="203"/>
+        <item x="190"/>
+        <item x="430"/>
+        <item x="476"/>
+        <item x="224"/>
+        <item x="509"/>
+        <item x="274"/>
+        <item x="53"/>
+        <item x="537"/>
+        <item x="142"/>
+        <item x="4"/>
+        <item x="132"/>
+        <item x="381"/>
+        <item x="408"/>
+        <item x="504"/>
+        <item x="29"/>
+        <item x="634"/>
+        <item x="172"/>
+        <item x="352"/>
+        <item x="199"/>
+        <item x="157"/>
+        <item x="150"/>
+        <item x="145"/>
+        <item x="6"/>
+        <item x="539"/>
+        <item x="393"/>
+        <item x="437"/>
+        <item x="27"/>
+        <item x="303"/>
+        <item x="182"/>
+        <item x="282"/>
+        <item x="309"/>
+        <item x="9"/>
+        <item x="598"/>
+        <item x="66"/>
+        <item x="423"/>
+        <item x="271"/>
+        <item x="116"/>
+        <item x="498"/>
+        <item x="340"/>
+        <item x="70"/>
+        <item x="126"/>
+        <item x="590"/>
+        <item x="57"/>
+        <item x="240"/>
+        <item x="263"/>
+        <item x="502"/>
+        <item x="284"/>
+        <item x="296"/>
+        <item x="398"/>
+        <item x="335"/>
+        <item x="584"/>
+        <item x="105"/>
+        <item x="163"/>
+        <item x="547"/>
+        <item x="8"/>
+        <item x="86"/>
+        <item x="188"/>
+        <item x="152"/>
+        <item x="42"/>
+        <item x="558"/>
+        <item x="88"/>
+        <item x="302"/>
+        <item x="551"/>
+        <item x="35"/>
+        <item x="604"/>
+        <item x="170"/>
+        <item x="329"/>
+        <item x="322"/>
+        <item x="236"/>
+        <item x="109"/>
+        <item x="34"/>
+        <item x="369"/>
+        <item x="151"/>
+        <item x="308"/>
+        <item x="434"/>
+        <item x="425"/>
+        <item x="286"/>
+        <item x="449"/>
+        <item x="433"/>
+        <item x="592"/>
+        <item x="602"/>
+        <item x="206"/>
+        <item x="44"/>
+        <item x="155"/>
+        <item x="135"/>
+        <item x="629"/>
+        <item x="321"/>
+        <item x="362"/>
+        <item x="81"/>
+        <item x="367"/>
+        <item x="533"/>
+        <item x="99"/>
+        <item x="233"/>
+        <item x="115"/>
+        <item x="538"/>
+        <item x="208"/>
+        <item x="494"/>
+        <item x="242"/>
+        <item x="574"/>
+        <item x="180"/>
+        <item x="207"/>
+        <item x="202"/>
+        <item x="349"/>
+        <item x="442"/>
+        <item x="445"/>
+        <item x="7"/>
+        <item x="357"/>
+        <item x="63"/>
+        <item x="506"/>
+        <item x="490"/>
+        <item x="96"/>
+        <item x="486"/>
+        <item x="47"/>
+        <item x="477"/>
+        <item x="171"/>
+        <item x="453"/>
+        <item x="220"/>
+        <item x="545"/>
+        <item x="457"/>
+        <item x="605"/>
+        <item x="344"/>
+        <item x="521"/>
+        <item x="287"/>
+        <item x="555"/>
+        <item x="264"/>
+        <item x="83"/>
+        <item x="428"/>
+        <item x="484"/>
+        <item x="38"/>
+        <item x="61"/>
+        <item x="599"/>
+        <item x="626"/>
+        <item x="237"/>
+        <item x="582"/>
+        <item x="351"/>
+        <item x="241"/>
+        <item x="111"/>
+        <item x="596"/>
+        <item x="80"/>
+        <item x="194"/>
+        <item x="5"/>
+        <item x="563"/>
+        <item x="501"/>
+        <item x="405"/>
+        <item x="183"/>
+        <item x="304"/>
+        <item x="527"/>
+        <item x="187"/>
+        <item x="175"/>
+        <item x="159"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="44" subtotalTop="0" showAll="0"/>
     <pivotField numFmtId="44" subtotalTop="0" showAll="0"/>
     <pivotField numFmtId="44" subtotalTop="0" showAll="0"/>
@@ -14375,22 +15622,35 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
+  <colFields count="2">
     <field x="12"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="6">
     <i>
       <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
     <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
       <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Sum of Sales" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units Sold" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -14701,18 +15961,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6392C4-01C5-44A1-A43B-BD197C96BA43}">
-  <dimension ref="A3:D75"/>
+  <dimension ref="A3:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="22" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="10.125" bestFit="1" customWidth="1"/>
     <col min="23" max="105" width="11.125" bestFit="1" customWidth="1"/>
     <col min="106" max="163" width="12.125" bestFit="1" customWidth="1"/>
     <col min="164" max="176" width="13.75" bestFit="1" customWidth="1"/>
@@ -14721,900 +15985,1433 @@
     <col min="179" max="179" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>559</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>551</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2018</v>
       </c>
-      <c r="C4">
-        <v>2019</v>
-      </c>
-      <c r="D4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="F4" t="s">
+        <v>566</v>
+      </c>
+      <c r="G4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>549</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>560</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B8" s="17">
         <v>1980490.15</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C8" s="17">
+        <v>13402</v>
+      </c>
+      <c r="D8" s="17">
         <v>3461530.7399999998</v>
       </c>
-      <c r="D7" s="17">
+      <c r="E8" s="17">
+        <v>43899</v>
+      </c>
+      <c r="F8" s="17">
         <v>5442020.8899999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="G8" s="17">
+        <v>57301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B9" s="17">
         <v>1084777.92</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C9" s="17">
+        <v>15600</v>
+      </c>
+      <c r="D9" s="17">
         <v>4999254.5</v>
       </c>
-      <c r="D8" s="17">
+      <c r="E9" s="17">
+        <v>30564</v>
+      </c>
+      <c r="F9" s="17">
         <v>6084032.4199999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="G9" s="17">
+        <v>46164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B10" s="17">
         <v>3065268.07</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C10" s="17">
+        <v>29002</v>
+      </c>
+      <c r="D10" s="17">
         <v>8460785.2400000002</v>
       </c>
-      <c r="D9" s="17">
+      <c r="E10" s="17">
+        <v>74463</v>
+      </c>
+      <c r="F10" s="17">
         <v>11526053.309999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="G10" s="17">
+        <v>103465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B12" s="17">
         <v>1340234.29</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C12" s="17">
+        <v>11374</v>
+      </c>
+      <c r="D12" s="17">
         <v>3632949.1000000006</v>
       </c>
-      <c r="D11" s="17">
+      <c r="E12" s="17">
+        <v>27284</v>
+      </c>
+      <c r="F12" s="17">
         <v>4973183.3900000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="G12" s="17">
+        <v>38658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B13" s="17">
         <v>1284513.3999999999</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C13" s="17">
+        <v>11692</v>
+      </c>
+      <c r="D13" s="17">
         <v>3243375.31</v>
       </c>
-      <c r="D12" s="17">
+      <c r="E13" s="17">
+        <v>34479</v>
+      </c>
+      <c r="F13" s="17">
         <v>4527888.71</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="G13" s="17">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B14" s="17">
         <v>2624747.69</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C14" s="17">
+        <v>23066</v>
+      </c>
+      <c r="D14" s="17">
         <v>6876324.4100000001</v>
       </c>
-      <c r="D13" s="17">
+      <c r="E14" s="17">
+        <v>61763</v>
+      </c>
+      <c r="F14" s="17">
         <v>9501072.1000000015</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="G14" s="17">
+        <v>84829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B16" s="17">
         <v>1424447.54</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C16" s="17">
+        <v>10685</v>
+      </c>
+      <c r="D16" s="17">
         <v>2892086.7699999996</v>
       </c>
-      <c r="D15" s="17">
+      <c r="E16" s="17">
+        <v>31843</v>
+      </c>
+      <c r="F16" s="17">
         <v>4316534.3099999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="G16" s="17">
+        <v>42528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B17" s="17">
         <v>1680337.96</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C17" s="17">
+        <v>27908</v>
+      </c>
+      <c r="D17" s="17">
         <v>9621366.4300000016</v>
       </c>
-      <c r="D16" s="17">
+      <c r="E17" s="17">
+        <v>65636</v>
+      </c>
+      <c r="F17" s="17">
         <v>11301704.390000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="G17" s="17">
+        <v>93544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B18" s="17">
         <v>3104785.5</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C18" s="17">
+        <v>38593</v>
+      </c>
+      <c r="D18" s="17">
         <v>12513453.200000001</v>
       </c>
-      <c r="D17" s="17">
+      <c r="E18" s="17">
+        <v>97479</v>
+      </c>
+      <c r="F18" s="17">
         <v>15618238.699999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="G18" s="17">
+        <v>136072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B19" s="17">
         <v>8794801.2599999998</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C19" s="17">
+        <v>90661</v>
+      </c>
+      <c r="D19" s="17">
         <v>27850562.850000001</v>
       </c>
-      <c r="D18" s="17">
+      <c r="E19" s="17">
+        <v>233705</v>
+      </c>
+      <c r="F19" s="17">
         <v>36645364.109999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="G19" s="17">
+        <v>324366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>547</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>560</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B22" s="17">
         <v>1997463.3</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C22" s="17">
+        <v>10890</v>
+      </c>
+      <c r="D22" s="17">
         <v>3286534.7</v>
       </c>
-      <c r="D21" s="17">
+      <c r="E22" s="17">
+        <v>33906</v>
+      </c>
+      <c r="F22" s="17">
         <v>5283998</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="G22" s="17">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B23" s="17">
         <v>1611558.78</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C23" s="17">
+        <v>15165</v>
+      </c>
+      <c r="D23" s="17">
         <v>3990683.9000000004</v>
       </c>
-      <c r="D22" s="17">
+      <c r="E23" s="17">
+        <v>28817</v>
+      </c>
+      <c r="F23" s="17">
         <v>5602242.6800000006</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="G23" s="17">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B24" s="17">
         <v>3609022.08</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C24" s="17">
+        <v>26055</v>
+      </c>
+      <c r="D24" s="17">
         <v>7277218.6000000006</v>
       </c>
-      <c r="D23" s="17">
+      <c r="E24" s="17">
+        <v>62723</v>
+      </c>
+      <c r="F24" s="17">
         <v>10886240.68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="G24" s="17">
+        <v>88778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B26" s="17">
         <v>961302.15</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C26" s="17">
+        <v>8134</v>
+      </c>
+      <c r="D26" s="17">
         <v>5237166.6100000003</v>
       </c>
-      <c r="D25" s="17">
+      <c r="E26" s="17">
+        <v>31833</v>
+      </c>
+      <c r="F26" s="17">
         <v>6198468.7600000007</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="G26" s="17">
+        <v>39967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B27" s="17">
         <v>1637224.15</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C27" s="17">
+        <v>12295</v>
+      </c>
+      <c r="D27" s="17">
         <v>3391106.6200000006</v>
       </c>
-      <c r="D26" s="17">
+      <c r="E27" s="17">
+        <v>42595</v>
+      </c>
+      <c r="F27" s="17">
         <v>5028330.7700000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="G27" s="17">
+        <v>54890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B28" s="17">
         <v>2598526.2999999998</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C28" s="17">
+        <v>20429</v>
+      </c>
+      <c r="D28" s="17">
         <v>8628273.2300000004</v>
       </c>
-      <c r="D27" s="17">
+      <c r="E28" s="17">
+        <v>74428</v>
+      </c>
+      <c r="F28" s="17">
         <v>11226799.530000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="G28" s="17">
+        <v>94857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B30" s="17">
         <v>1834638.4500000002</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C30" s="17">
+        <v>8780</v>
+      </c>
+      <c r="D30" s="17">
         <v>5581891.9199999999</v>
       </c>
-      <c r="D29" s="17">
+      <c r="E30" s="17">
+        <v>37476</v>
+      </c>
+      <c r="F30" s="17">
         <v>7416530.3700000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="G30" s="17">
+        <v>46256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B31" s="17">
         <v>2010735.6400000001</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C31" s="17">
+        <v>23231</v>
+      </c>
+      <c r="D31" s="17">
         <v>9268944.0999999996</v>
       </c>
-      <c r="D30" s="17">
+      <c r="E31" s="17">
+        <v>81962</v>
+      </c>
+      <c r="F31" s="17">
         <v>11279679.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="G31" s="17">
+        <v>105193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B32" s="17">
         <v>3845374.0900000003</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C32" s="17">
+        <v>32011</v>
+      </c>
+      <c r="D32" s="17">
         <v>14850836.02</v>
       </c>
-      <c r="D31" s="17">
+      <c r="E32" s="17">
+        <v>119438</v>
+      </c>
+      <c r="F32" s="17">
         <v>18696210.109999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="G32" s="17">
+        <v>151449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B33" s="17">
         <v>10052922.470000001</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C33" s="17">
+        <v>78495</v>
+      </c>
+      <c r="D33" s="17">
         <v>30756327.850000001</v>
       </c>
-      <c r="D32" s="17">
+      <c r="E33" s="17">
+        <v>256589</v>
+      </c>
+      <c r="F33" s="17">
         <v>40809250.32</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="G33" s="17">
+        <v>335084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
         <v>546</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>560</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B36" s="17">
         <v>1253150.76</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C36" s="17">
+        <v>12402</v>
+      </c>
+      <c r="D36" s="17">
         <v>3786746.5799999996</v>
       </c>
-      <c r="D35" s="17">
+      <c r="E36" s="17">
+        <v>41212</v>
+      </c>
+      <c r="F36" s="17">
         <v>5039897.34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="G36" s="17">
+        <v>53614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B37" s="17">
         <v>325299.56</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C37" s="17">
+        <v>8637</v>
+      </c>
+      <c r="D37" s="17">
         <v>2334781.2800000003</v>
       </c>
-      <c r="D36" s="17">
+      <c r="E37" s="17">
+        <v>26580</v>
+      </c>
+      <c r="F37" s="17">
         <v>2660080.8400000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="G37" s="17">
+        <v>35217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B38" s="17">
         <v>1578450.32</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C38" s="17">
+        <v>21039</v>
+      </c>
+      <c r="D38" s="17">
         <v>6121527.8599999994</v>
       </c>
-      <c r="D37" s="17">
+      <c r="E38" s="17">
+        <v>67792</v>
+      </c>
+      <c r="F38" s="17">
         <v>7699978.1799999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="G38" s="17">
+        <v>88831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B40" s="17">
         <v>1795031.8599999999</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C40" s="17">
+        <v>9401</v>
+      </c>
+      <c r="D40" s="17">
         <v>5987708.5200000005</v>
       </c>
-      <c r="D39" s="17">
+      <c r="E40" s="17">
+        <v>35707</v>
+      </c>
+      <c r="F40" s="17">
         <v>7782740.3800000008</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="G40" s="17">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B41" s="17">
         <v>2097769.5</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C41" s="17">
+        <v>13048</v>
+      </c>
+      <c r="D41" s="17">
         <v>5290998.8099999996</v>
       </c>
-      <c r="D40" s="17">
+      <c r="E41" s="17">
+        <v>50818</v>
+      </c>
+      <c r="F41" s="17">
         <v>7388768.3099999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="G41" s="17">
+        <v>63866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B42" s="17">
         <v>3892801.36</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C42" s="17">
+        <v>22449</v>
+      </c>
+      <c r="D42" s="17">
         <v>11278707.33</v>
       </c>
-      <c r="D41" s="17">
+      <c r="E42" s="17">
+        <v>86525</v>
+      </c>
+      <c r="F42" s="17">
         <v>15171508.690000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="G42" s="17">
+        <v>108974</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B44" s="17">
         <v>1409816.79</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C44" s="17">
+        <v>11554</v>
+      </c>
+      <c r="D44" s="17">
         <v>2918459.7399999998</v>
       </c>
-      <c r="D43" s="17">
+      <c r="E44" s="17">
+        <v>33118</v>
+      </c>
+      <c r="F44" s="17">
         <v>4328276.5299999993</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="G44" s="17">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B45" s="17">
         <v>2927004.3100000005</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C45" s="17">
+        <v>21707</v>
+      </c>
+      <c r="D45" s="17">
         <v>9616076.6799999978</v>
       </c>
-      <c r="D44" s="17">
+      <c r="E45" s="17">
+        <v>82285</v>
+      </c>
+      <c r="F45" s="17">
         <v>12543080.989999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="G45" s="17">
+        <v>103992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B46" s="17">
         <v>4336821.1000000006</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C46" s="17">
+        <v>33261</v>
+      </c>
+      <c r="D46" s="17">
         <v>12534536.419999998</v>
       </c>
-      <c r="D45" s="17">
+      <c r="E46" s="17">
+        <v>115403</v>
+      </c>
+      <c r="F46" s="17">
         <v>16871357.519999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="G46" s="17">
+        <v>148664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B47" s="17">
         <v>9808072.7800000012</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C47" s="17">
+        <v>76749</v>
+      </c>
+      <c r="D47" s="17">
         <v>29934771.609999992</v>
       </c>
-      <c r="D46" s="17">
+      <c r="E47" s="17">
+        <v>269720</v>
+      </c>
+      <c r="F47" s="17">
         <v>39742844.390000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="G47" s="17">
+        <v>346469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
         <v>548</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
-        <v>560</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B50" s="17">
         <v>2690763</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C50" s="17">
+        <v>12580</v>
+      </c>
+      <c r="D50" s="17">
         <v>5507836.7399999993</v>
       </c>
-      <c r="D49" s="17">
+      <c r="E50" s="17">
+        <v>39525</v>
+      </c>
+      <c r="F50" s="17">
         <v>8198599.7399999993</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="G50" s="17">
+        <v>52105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B51" s="17">
         <v>563302.84000000008</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C51" s="17">
+        <v>9621</v>
+      </c>
+      <c r="D51" s="17">
         <v>3667576.56</v>
       </c>
-      <c r="D50" s="17">
+      <c r="E51" s="17">
+        <v>33856</v>
+      </c>
+      <c r="F51" s="17">
         <v>4230879.4000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
+      <c r="G51" s="17">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B52" s="17">
         <v>3254065.84</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C52" s="17">
+        <v>22201</v>
+      </c>
+      <c r="D52" s="17">
         <v>9175413.2999999989</v>
       </c>
-      <c r="D51" s="17">
+      <c r="E52" s="17">
+        <v>73381</v>
+      </c>
+      <c r="F52" s="17">
         <v>12429479.140000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="G52" s="17">
+        <v>95582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B54" s="17">
         <v>424109.11</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C54" s="17">
+        <v>11834</v>
+      </c>
+      <c r="D54" s="17">
         <v>2526002.0200000005</v>
       </c>
-      <c r="D53" s="17">
+      <c r="E54" s="17">
+        <v>24809</v>
+      </c>
+      <c r="F54" s="17">
         <v>2950111.1300000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="G54" s="17">
+        <v>36643</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B55" s="17">
         <v>2038639.18</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C55" s="17">
+        <v>15856</v>
+      </c>
+      <c r="D55" s="17">
         <v>4592021.91</v>
       </c>
-      <c r="D54" s="17">
+      <c r="E55" s="17">
+        <v>33671</v>
+      </c>
+      <c r="F55" s="17">
         <v>6630661.0899999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
+      <c r="G55" s="17">
+        <v>49527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B56" s="17">
         <v>2462748.29</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C56" s="17">
+        <v>27690</v>
+      </c>
+      <c r="D56" s="17">
         <v>7118023.9300000006</v>
       </c>
-      <c r="D55" s="17">
+      <c r="E56" s="17">
+        <v>58480</v>
+      </c>
+      <c r="F56" s="17">
         <v>9580772.2200000007</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="G56" s="17">
+        <v>86170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B58" s="17">
         <v>2048719.0899999999</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C58" s="17">
+        <v>13930</v>
+      </c>
+      <c r="D58" s="17">
         <v>5598025.2800000003</v>
       </c>
-      <c r="D57" s="17">
+      <c r="E58" s="17">
+        <v>41598</v>
+      </c>
+      <c r="F58" s="17">
         <v>7646744.3700000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="G58" s="17">
+        <v>55528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B59" s="17">
         <v>1059305.95</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C59" s="17">
+        <v>23564</v>
+      </c>
+      <c r="D59" s="17">
         <v>6466875.1100000003</v>
       </c>
-      <c r="D58" s="17">
+      <c r="E59" s="17">
+        <v>73301</v>
+      </c>
+      <c r="F59" s="17">
         <v>7526181.0600000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+      <c r="G59" s="17">
+        <v>96865</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B60" s="17">
         <v>3108025.04</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C60" s="17">
+        <v>37494</v>
+      </c>
+      <c r="D60" s="17">
         <v>12064900.390000001</v>
       </c>
-      <c r="D59" s="17">
+      <c r="E60" s="17">
+        <v>114899</v>
+      </c>
+      <c r="F60" s="17">
         <v>15172925.43</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+      <c r="G60" s="17">
+        <v>152393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B61" s="17">
         <v>8824839.1699999999</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C61" s="17">
+        <v>87385</v>
+      </c>
+      <c r="D61" s="17">
         <v>28358337.620000001</v>
       </c>
-      <c r="D60" s="17">
+      <c r="E61" s="17">
+        <v>246760</v>
+      </c>
+      <c r="F61" s="17">
         <v>37183176.789999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="G61" s="17">
+        <v>334145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
         <v>550</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
-        <v>560</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B64" s="17">
         <v>2603285.5499999998</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C64" s="17">
+        <v>17804</v>
+      </c>
+      <c r="D64" s="17">
         <v>3561817.45</v>
       </c>
-      <c r="D63" s="17">
+      <c r="E64" s="17">
+        <v>38618</v>
+      </c>
+      <c r="F64" s="17">
         <v>6165103</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="G64" s="17">
+        <v>56422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B65" s="17">
         <v>416414.75999999995</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C65" s="17">
+        <v>12240</v>
+      </c>
+      <c r="D65" s="17">
         <v>1877495.29</v>
       </c>
-      <c r="D64" s="17">
+      <c r="E65" s="17">
+        <v>23085</v>
+      </c>
+      <c r="F65" s="17">
         <v>2293910.0499999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
+      <c r="G65" s="17">
+        <v>35325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B66" s="17">
         <v>3019700.3099999996</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C66" s="17">
+        <v>30044</v>
+      </c>
+      <c r="D66" s="17">
         <v>5439312.7400000002</v>
       </c>
-      <c r="D65" s="17">
+      <c r="E66" s="17">
+        <v>61703</v>
+      </c>
+      <c r="F66" s="17">
         <v>8459013.0500000007</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
+      <c r="G66" s="17">
+        <v>91747</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B68" s="17">
         <v>221552.12</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C68" s="17">
+        <v>9975</v>
+      </c>
+      <c r="D68" s="17">
         <v>4276464.790000001</v>
       </c>
-      <c r="D67" s="17">
+      <c r="E68" s="17">
+        <v>32440</v>
+      </c>
+      <c r="F68" s="17">
         <v>4498016.9100000011</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="G68" s="17">
+        <v>42415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B69" s="17">
         <v>2778014</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C69" s="17">
+        <v>11475</v>
+      </c>
+      <c r="D69" s="17">
         <v>4433586.6399999997</v>
       </c>
-      <c r="D68" s="17">
+      <c r="E69" s="17">
+        <v>36908</v>
+      </c>
+      <c r="F69" s="17">
         <v>7211600.6399999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
+      <c r="G69" s="17">
+        <v>48383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B70" s="17">
         <v>2999566.12</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C70" s="17">
+        <v>21450</v>
+      </c>
+      <c r="D70" s="17">
         <v>8710051.4299999997</v>
       </c>
-      <c r="D69" s="17">
+      <c r="E70" s="17">
+        <v>69348</v>
+      </c>
+      <c r="F70" s="17">
         <v>11709617.550000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="18" t="s">
+      <c r="G70" s="17">
+        <v>90798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B72" s="17">
         <v>1049810.17</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C72" s="17">
+        <v>7736</v>
+      </c>
+      <c r="D72" s="17">
         <v>2781811.6299999994</v>
       </c>
-      <c r="D71" s="17">
+      <c r="E72" s="17">
+        <v>28746</v>
+      </c>
+      <c r="F72" s="17">
         <v>3831621.7999999993</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="G72" s="17">
+        <v>36482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B73" s="17">
         <v>1578412.23</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C73" s="17">
+        <v>24609</v>
+      </c>
+      <c r="D73" s="17">
         <v>9320968.5500000026</v>
       </c>
-      <c r="D72" s="17">
+      <c r="E73" s="17">
+        <v>82395</v>
+      </c>
+      <c r="F73" s="17">
         <v>10899380.780000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18" t="s">
+      <c r="G73" s="17">
+        <v>107004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B74" s="17">
         <v>2628222.4</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C74" s="17">
+        <v>32345</v>
+      </c>
+      <c r="D74" s="17">
         <v>12102780.180000002</v>
       </c>
-      <c r="D73" s="17">
+      <c r="E74" s="17">
+        <v>111141</v>
+      </c>
+      <c r="F74" s="17">
         <v>14731002.580000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
+      <c r="G74" s="17">
+        <v>143486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B75" s="17">
         <v>8647488.8300000001</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C75" s="17">
+        <v>83839</v>
+      </c>
+      <c r="D75" s="17">
         <v>26252144.350000001</v>
       </c>
-      <c r="D74" s="17">
+      <c r="E75" s="17">
+        <v>242192</v>
+      </c>
+      <c r="F75" s="17">
         <v>34899633.180000007</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
+      <c r="G75" s="17">
+        <v>326031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B76" s="17">
         <v>46128124.509999998</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C76" s="17">
+        <v>417129</v>
+      </c>
+      <c r="D76" s="17">
         <v>143152144.28</v>
       </c>
-      <c r="D75" s="17">
+      <c r="E76" s="17">
+        <v>1248966</v>
+      </c>
+      <c r="F76" s="17">
         <v>189280268.78999999</v>
+      </c>
+      <c r="G76" s="17">
+        <v>1666095</v>
       </c>
     </row>
   </sheetData>
